--- a/deuChatbot/research_result/results/rouge_score/rouge_version_1(2500_400).xlsx
+++ b/deuChatbot/research_result/results/rouge_score/rouge_version_1(2500_400).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F204"/>
+  <dimension ref="A1:F305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7321,79 +7321,4140 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>GPT-4o-mini Average</t>
+          <t>Qwen2.5-7B-instruct</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>아니요. 학생부 교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>نعم, 동의대학교 학생부교과 전형에서는 출결이 반영됩니다.
+출결 관련 내용은 다음과 같습니다:
+1. "상기과목 외 고교에서 이수한 국어, 수학, 외국어(영어), 사회(역사/도덕포함), 과학, 한국사교과에 해당되는 과목은 반영과목에 포함됩니다."
+2. "성취도, 석차 또는 석차등급이 기재된 경우만 반영하며, ‘Ⅰ(1)’, ‘Ⅱ(2)’가 포함된 과목은 모두 반영과목에 해당됩니다."
+따라서 출결 점수는 성적과 함께 학생부 교과성적으로 반영되며, 석차나 등급이 기재되어야 합니다.</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>0.4184594566714762</v>
+        <v>0.1549295774647887</v>
       </c>
       <c r="E202" t="n">
-        <v>0.2846320664873266</v>
+        <v>0.07142857142857144</v>
       </c>
       <c r="F202" t="n">
-        <v>0.3648940364679524</v>
+        <v>0.09859154929577464</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Google Gemma-2-9b-it Average</t>
+          <t>Qwen2.5-7B-instruct</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 17명을 모집합니다.</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>17명을 모집합니다.
+이 정보는 다음과 같은 표에서 얻었습니다:
+[표 속성]
+``` 단과대학 / 계열 / 모집단위 / 모집인원 ```
+[표 내용]
+```
+인문사회과학대학 / 인문사회 / 국어국문학과 - 교직 / 17 /
+```
+따라서, 인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로는 17명을 모집합니다.</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>0.3267670018704487</v>
+        <v>0.36</v>
       </c>
       <c r="E203" t="n">
-        <v>0.1594024426039403</v>
+        <v>0.326530612244898</v>
       </c>
       <c r="F203" t="n">
-        <v>0.256966149282352</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학 영어영문학과의 경우, 다군 일반학생 전형을 통해 총 28명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>28명을 모집합니다.
+인문사회과학대학 / 인문사회 / 영어영문학과 - 교직 / 28 /
+위 표로부터可以看到，人文社会科学大学的英语文学系在普通学生招生中招收28名。</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>0.3461538461538461</v>
+      </c>
+      <c r="E204" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F204" t="n">
+        <v>0.2307692307692308</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 경우, 나군 일반학생 전형을 통해 총 22명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>22명입니다.
+의료보건생활대학 간호학과는 나군 일반학생전형에서 22명을 모집하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>0.4782608695652174</v>
+      </c>
+      <c r="E205" t="n">
+        <v>0.2272727272727272</v>
+      </c>
+      <c r="F205" t="n">
+        <v>0.4782608695652174</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>수능 영어영역 등급에 따른 점수는 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>以下是翻译内容：
+英语等级对应的分数如下：
+1 级：139 分  
+2 级：131 分  
+3 级：123 分  
+4 级：115 分  
+5 级：107 分  
+6 级：99 分  
+7 级：91 分  
+8 级：83 分  
+9 级：75 分  
+您可以在提供的表格中查看具体的分数对应关系。如果您有其他问题或需要进一步的帮助，请告诉我。</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>0.1724137931034483</v>
+      </c>
+      <c r="E206" t="n">
+        <v>0</v>
+      </c>
+      <c r="F206" t="n">
+        <v>0.1724137931034483</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>아니요, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 지원자격에 따르면 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 예술고 출신자는 나군 학생부교과(농어촌학생전형)로 지원할 수 없습니다. 
+[표 추가내용]에 따르면:
+- 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 예술고 출신자는 지원할 수 없습니다.
+따라서 예술고 학생은 이 전형으로 지원이 불가능합니다. 다른 전형을 찾아보시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>0.6615384615384615</v>
+      </c>
+      <c r="E207" t="n">
+        <v>0.5468749999999999</v>
+      </c>
+      <c r="F207" t="n">
+        <v>0.6000000000000001</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점은 다음과 같습니다:
+- 기록: 218~221 cm
+- 배점: 275점</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>4등급의 여자 제자리 멀리뛰기 기록은 253~256cm이며, 이에 대한 배점은 112.0점입니다.
+이 정보는 다음과 같은 표에서 얻었습니다:
+```
+레저스포츠학과 기록별 배점표
+등급 / 제자리 멀리뛰기(cm) { 남 / 여 / 배점 } 
+9 / { 253~256 / 199~202 / 112.0 / }
+```
+따라서, 레저스포츠학과 여자 제자리 멀리뛰기 4등급의 기록은 253cm에서 256cm 사이이며, 이에 대한 배점은 112.0점입니다.</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>0.304</v>
+      </c>
+      <c r="E208" t="n">
+        <v>0.1463414634146342</v>
+      </c>
+      <c r="F208" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>12%입니다.
+이 정보는 다음과 같은 표에서 얻었습니다:
+[표 속성]
+``` 모집단위 / 전형요소 반영비율 { 학생부교과 / 출결 / 서류(경기실적) } ```
+[표 내용]
+```
+경기지도학과 / { 18% /  12% /  70% / } /
+```
+따라서 경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>0.2444444444444444</v>
+      </c>
+      <c r="E209" t="n">
+        <v>0.2272727272727273</v>
+      </c>
+      <c r="F209" t="n">
+        <v>0.2444444444444444</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>4명을 모집합니다.
+참조된 정보:
+- 물리치료학과는 "공과대학 / 공학 / 물리치료학과 / 4 /"로 나와 있습니다.</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E210" t="n">
+        <v>0.3255813953488372</v>
+      </c>
+      <c r="F210" t="n">
+        <v>0.2666666666666667</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>2024. 01. 17.(수) 입니다.</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사는 2024년 1월 17일(수)에 실시됩니다.
+이 정보는 "전형일정" 표에서 확인할 수 있습니다. 해당 표에서는 다음과 같이 명시되어 있습니다:
+- **디자인조형학과 (시각디자인, 산업디자인, 공예디자인)**: 2024. 01. 17.(수)</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>0.2117647058823529</v>
+      </c>
+      <c r="E211" t="n">
+        <v>0.1686746987951807</v>
+      </c>
+      <c r="F211" t="n">
+        <v>0.1882352941176471</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>수능 최저 학력 기준은 없습니다.</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 응용화학과의 정확한 수능 최저기준 정보가 표에서 제공되지 않았습니다. 
+표에서 응용화학과 관련된 정보는 다음과 같습니다:
+- 응용화학과는 다군 수능(일반학생전형) 모집단위에 포함되어 있습니다.
+- 해당 모집단위의 전형요소 반영비율은 { 0 /  0 /  0 /  0 /  0 /  100 / }로, 수능이 100% 반영됩니다.
+- 하지만 수능 최저기준 항목에는 "수능최저기준 없음"이라고 표기되어 있습니다.
+따라서 현재 제공된 정보만으로는 응용화학과의 정확한 수능 최저기준을 알 수 없습니다. 동의대학교 입학처나 공식 홈페이지를 통해 최신 및 자세한 수능 최저기준을 확인해 보시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>0.08053691275167783</v>
+      </c>
+      <c r="E212" t="n">
+        <v>0.0272108843537415</v>
+      </c>
+      <c r="F212" t="n">
+        <v>0.08053691275167783</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 경기지도학과</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 학과들은 다음과 같습니다:
+1. 경기지도학과 (신설)
+2. 스마트항만물류학과 - 신설
+3. 창업투자경영학과 - 신설
+4. 라이프융합학부 - 신설 (스마트업창업투자학, 뷰티비즈니스학, 라이프생활문화학 포함)
+5. 부동산자산경역학부 - 신설 (부동산투자학, 부동산개발경영학 포함)
+위와 같이 다섯 개의 학과가 2024학년도에 신설되었습니다.</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>0.6871165644171778</v>
+      </c>
+      <c r="E213" t="n">
+        <v>0.5838509316770185</v>
+      </c>
+      <c r="F213" t="n">
+        <v>0.6380368098159509</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류 70%, 면접 30%입니다.</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 다음과 같습니다:
+- 서류: 70%
+- 면접: 30%
+이 정보는 아래와 같은 데이터에서 확인할 수 있습니다:
+[표 속성]
+``` 전형명 / 전형요소 반영비율{ 서류 / 면접 } ```
+[표 내용]
+```
+학생부종합(평생학습자전형) / { 70% /  30% / } /
+학생부종합(성인학습자(정원내·외)전형) / { 70% /  30% / } /
+```
+위 표에서 성인학습자 전형의 비율이 동일하게 70%/30%로 반영되고 있습니다.</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>0.3233532934131736</v>
+      </c>
+      <c r="E214" t="n">
+        <v>0.2303030303030303</v>
+      </c>
+      <c r="F214" t="n">
+        <v>0.311377245508982</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 다음 모집단위에서 수능 가산점을 적용합니다:
+- 의료·보건·생활대학
+- 공과대학
+- ICT융합공과대학
+이들 모집단위에서 수학(미적분 또는 기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교에서는 공과대학, ICT융합공과대학 모집단위에서 수학(미적분 또는 기하) 응시자에게 수학 취득 표준점수의 10%를 가산점으로 부여합니다.
+관련 정보는 다음과 같습니다:
+- [가산점] 표에서 공과대학, ICT융합공과대학 모집단위에 대해 "수학(미적분 or 기하)응시자는 수학 취득 표준점수의 10%를 가산점으로 부여"라고 명시되어 있습니다.
+따라서 수능 가산점을 적용받을 수 있는 학과는 공과대학과 ICT융합공과대학입니다.</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>0.5283018867924528</v>
+      </c>
+      <c r="E215" t="n">
+        <v>0.3694267515923567</v>
+      </c>
+      <c r="F215" t="n">
+        <v>0.4276729559748428</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 가군 수능(일반학생전형)에서는 수능 성적을 100% 반영합니다. 자세한 수능 성적 반영 방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 수능 성적은 다음과 같이 반영됩니다:
+1. 국어(화법과작문 또는 언어와매체) : 25%
+2. 수학(확률과통계 또는 미적분 또는 기하) : 25%
+3. 영어 : 25%
+4. 탐구 (사회탐구 또는 과학탐구 또는 직업탐구 - 2개 과목 합) : 25%
+특히, 한의예과의 경우 수학(미적분/기하) 응시자에게는 수학 취득 표준점수의 10% 가산점이 부여됩니다.
+이러한 반영방법은 모든 모집단위에 동일하게 적용되며, 탐구 영역은 지정과목 없이 2개 과목 중 선택하여 반영합니다.</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>0.2130177514792899</v>
+      </c>
+      <c r="E216" t="n">
+        <v>0.0718562874251497</v>
+      </c>
+      <c r="F216" t="n">
+        <v>0.1420118343195266</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기고사는 다음과 같이 진행됩니다:
+- **레저스포츠학과, 태권도학과**:
+  - 날짜: 2024. 01. 16.(화)
+  - 대기실 및 입실시간 안내는 2024. 01. 12.(금) 14:00 이후에 입학안내 홈페이지에서 확인 가능합니다.
+따라서, 가군 실기고사는 **2024년 1월 16일(화)**에 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>0.3673469387755102</v>
+      </c>
+      <c r="E217" t="n">
+        <v>0.2708333333333333</v>
+      </c>
+      <c r="F217" t="n">
+        <v>0.326530612244898</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서는 한의예과, 디자인조형학과와 체육학과, 경기지도학과가 제외됩니다.</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 수능(일반학생전형)에서 제외된 모집단위는 디자인조형학과와 체육학과입니다.
+이 점을 확인하기 위해 관련 정보를 찾아보면, "나군 수능(일반학생전형), 실기/실적(일반학생전형) 전형요소 반영비율" 표에서 다음과 같이 명시되어 있습니다:
+```
+나군 수능(일반학생전형) / 전 모집단위(디자인조형학과 체육학과 제외) / { 100% /  - / } /
+```
+이는 디자인조형학과와 체육학과는 나군 수능(일반학생전형)에서 실기/실적 비율이 70%로 반영되는 것으로 볼 수 있습니다. 따라서 이 두 학과는 나군 수능(일반학생전형)에서 제외된 것으로 해석할 수 있습니다.
+따라서, 동의대 2024학년도 나군 수능(일반학생전형)에서는 디자인조형학과와 체육학과가 제외되었습니다.</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>0.2476190476190476</v>
+      </c>
+      <c r="E218" t="n">
+        <v>0.1634615384615385</v>
+      </c>
+      <c r="F218" t="n">
+        <v>0.2190476190476191</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024학년도 동의대의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. </t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 다군 전형에서는 수능 최저기준이 적용됩니다. 
+다군 수능(일반학생전형) 모집단위 및 모집인원 표에서 볼 수 있듯이, 모든 모집단위는 수능 성적을 기반으로 학생들을 선발합니다.
+또한, 전형요소 반영비율 표에서도 확인할 수 있듯이 다군 전형의 경우 수능 성적이 100% 반영됩니다:
+```
+다군 수능(일반학생전형) / 전 모집단위 / { 100% / } /
+```
+따라서, 다군 전형에서는 수능 최저기준이 적용되며, 해당 기준을 충족하지 못한 지원자는 합격이 불가능합니다.</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>0.1971830985915493</v>
+      </c>
+      <c r="E219" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="F219" t="n">
+        <v>0.1971830985915493</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 학부에서 학과로 분리된 학과는 다음과 같습니다:
+1. 보육가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부 → 경영정보학과, e비즈니스학과
+4. 부동산금융자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부 → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서는 다음과 같은 학과가 학부에서 학과로 분리되었습니다:
+1. 보육·가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부(경영정보학, e비즈니스학) → 경영정보학과, e비즈니스학과
+4. 부동산금융·자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부(기계공학, 로봇·자동화공학, 자동차공학) → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간·시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+이 외에도 몇몇 학과는 신설되었거나 모집을 중지하였습니다.</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>0.9138686131386861</v>
+      </c>
+      <c r="E220" t="n">
+        <v>0.8667642752562226</v>
+      </c>
+      <c r="F220" t="n">
+        <v>0.8817518248175182</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수 마감일은 2024년 1월 6일(토) 18시입니다.</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 전형일정에 따르면, 원서접수 마감일은 **2024. 01. 06.(토) 18시**까지입니다.
+이 기간 내에 원서접수 사이트 접속이 차단되므로, 사전에 미리 접속하여 지원 내용 입력 및 전형료 결제를 완료해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>0.4050632911392404</v>
+      </c>
+      <c r="E221" t="n">
+        <v>0.2597402597402597</v>
+      </c>
+      <c r="F221" t="n">
+        <v>0.379746835443038</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도에 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1.  학생부종합(성인학습자전형):
+ - 2023학년도: 특성화고 등을 졸업한 재직자
+ - 2024학년도: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+2.  학생부종합(조기취업형계약학과전형):
+  - 2023학년도: 서류(학생부) 70% + 면접 30%
+  - 2024학년도: 서류(학생부) 60% + 면접 40%
+3. 실기/실적(경기실적우수자전형):
+  - 2023학년도: 학생부교과(출결 포함) 30% + 서류(실적) 70%
+  - 2024학년도: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+4. 반영학기(학생부교과, 실기/실적 위주전형):
+ - 2023학년도: 
+  - 고교 졸업예정자 : 1학년 1학기~3학년 1학기
+  - 고교 졸업자 : 1학년 1학기~3학년 2학기
+ - 2024학년도: 
+  -고교 졸업(예정)자 : 1학년 1학기~3학년 1학기
+5. 반영과목(학생부교과, 실기/실적 위주전형):
+ - 2023학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어교과 중 석차등급 상위 8과목
+   -8과목을 제외한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 2등급, B: 4등급, C: 6등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 미반영
+- 2024학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 1등급, B: 3등급, C: 5등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 반영교과 전과목 반영
+</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 주요 변경된 전형 요소는 다음과 같습니다:
+1. **전체 학과 분리 및 통합**:
+   - 보육·가정상담학과 → 아동학과
+   - 경제금융보험학과 → 금융경영학과
+   - 정보경영학부(경영정보학, e비즈니스학) → 경영정보학과, e비즈니스학과
+   - 부동산금융·자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+   - 기계자동차로봇부품공학부(기계공학, 로봇·자동화공학, 자동차공학) → 기계공학과, 로봇자동화공학과, 자동차공학과
+   - 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+   - 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+   - 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+   - 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+   - 디자인공학부(인간·시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+   - 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+   - 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+   - 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+   - 음악학과(성악, 피아노, 관현타악, 실용음악·뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)
+2. **신설 및 폐지된 학과**:
+   - 심리학과 (신설)
+   - 스마트항만물류학과 (신설) 
+   - 창업투자경영학과 (신설)
+   - 라이프융합학부 (신설)(스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+   - 경기지도학과 (신설)
+   - 산업융합시스템공학부(산업ICT기술공학) 모집중지
+   - 전기전자통신공학부(정보통신공학) 모집중지
+   - 디자인조형학과(서양화·한국화·환경조형) 모집중지
+3. **정시모집군 변경**:
+   - 영어영문학과 (가) → 영어영문학과 (다)
+   - 호텔‧컨벤션경영학과 (나) → 호텔‧컨벤션경영학과 (가)
+   - 로봇자동화공학과 (나) → 로봇자동화공학과 (가)
+   - 토목공학과 (가) → 토목공학과 (나)
+   - 응용화학과 (가) → 응용화학과 (다)
+   - 바이오의약공학과 (다) → 바이오의약공학과 (나)
+   - 제품디자인공학과 (나) → 제품디자인공학과 (가)
+   - 전기공학과 (나) → 전기공학과 (가)
+   - 전자공학과 (나) → 전자공학과 (가)
+4. **전형 신설**:
+   - 학생부종합(평생학습자전형): 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자
+5. **전형명 및 지원자격 변경**:
+   - 학생부종합(성인학습자전형): 특성화고 등을 졸업한 재직자 → 학생부종합(성인학습자(정원내)전형): 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+6. **학생부 교과성적 반영방법 변경**:
+   - 일부 모집단위에서 진로선택과목을 반영하는 방식이 변경됨
+   - 한의예과에서는 탐구 영역의 평가 방법이 변동
+7. **전형요소 반영비율 변경**:
+   - 학생부종합(조기취업형계약학과전형): 서류 60% + 면접 40% → 서류 70% + 면접 30%
+위와 같은 주요 변경사항들이 있습니다.</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>0.3279693486590038</v>
+      </c>
+      <c r="E222" t="n">
+        <v>0.1488871834228703</v>
+      </c>
+      <c r="F222" t="n">
+        <v>0.1425287356321839</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중은 70%입니다.</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기/실적 전형에서 실기 비중은 70%입니다.
+이 정보는 "전형요소 반영비율" 표에서 확인할 수 있습니다:
+- 표 제목: 전형요소 반영비율
+- 모집단위: 가군 실기/실적(일반학생전형)
+- 전형요소 반영비율: { 0 /  0 /  70 /  30 /  0 /  0 / }
+여기서 세 번째 항목인 70%가 실기 비중을 나타냅니다.</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>0.2990654205607477</v>
+      </c>
+      <c r="E223" t="n">
+        <v>0.2476190476190476</v>
+      </c>
+      <c r="F223" t="n">
+        <v>0.2803738317757009</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 라이프융합학부의 세부 전공은 다음과 같이 구성되어 있습니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 학과인 "라이프융합학부"의 세부 전공은 다음과 같습니다:
+- 스타트업창업투자학
+- 뷰티비즈니스학  
+- 라이프생활문화학
+이러한 세부전공들은 평생학습자전형을 통해 모집됩니다.</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>0.651685393258427</v>
+      </c>
+      <c r="E224" t="n">
+        <v>0.4827586206896552</v>
+      </c>
+      <c r="F224" t="n">
+        <v>0.651685393258427</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 체육학과
+2. 레저스포츠학과</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 실기고사를 진행하는 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과 (시각디자인, 산업디자인, 공예디자인)
+4. 체육학과
+이 중에서:
+- 레저스포츠학과와 태권도학과는 제자리 멀리뛰기와 Z-런 실기를 진행합니다.
+- 디자인조형학과는 기초디자인 또는 사고의 전환 중 하나를 선택하여 실기시험을 치릅니다.
+- 체육학과는 제자리 멀리뛰기, 메디신볼 던지기, Z-런 중에서 1개 과목만 응시합니다.
+따라서 지원자가 해당 학과에 지원하면 해당하는 실기고사를 준비해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>0.3076923076923077</v>
+      </c>
+      <c r="E225" t="n">
+        <v>0.2395209580838323</v>
+      </c>
+      <c r="F225" t="n">
+        <v>0.272189349112426</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과 </t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 실기/실적 위주 전형인 "실기/실적(일반학생전형)"에 지원 가능한 학과는 다음과 같습니다:
+1. 디자인조형학과 (디자인 관련 실기)
+2. 체육학과 
+3. 경기지도학과
+이 중에서:
+- 디자인조형학과와 체육학과는 가군에 해당됩니다.
+- 경기지도학과는 나군에 해당됩니다.
+따라서, 실기/실적 위주 전형을 지원하려면 위의 3개 학과 중 하나를 선택하여 지원해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>0.4967320261437909</v>
+      </c>
+      <c r="E226" t="n">
+        <v>0.3443708609271523</v>
+      </c>
+      <c r="F226" t="n">
+        <v>0.4444444444444444</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부는 신설된 학부로, 다음과 같은 전공을 제공합니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 미래융합대학에서 신설되는 라이프융합학부는 다음과 같은 전공을 제공합니다:
+1. 스타트업창업투자학
+2. 뷰티비즈니스학
+3. 라이프생활문화학
+这三个专业旨在培养与生活融合相关的领域的人才，包括创业投资、美容商业以及生活方式文化等方面的专业知识和技能。</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="E227" t="n">
+        <v>0.4615384615384615</v>
+      </c>
+      <c r="F227" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>특수목적고등학교 출신 학생은 일반학생전형으로 지원할 수 있습니다. 다만, 농어촌학생전형의 경우 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없습니다. 일반학생전형에 대한 자세한 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>6년 과정 또는 12년 과정 중 하나에 해당해야 합니다. 특수목적고등학교(과학고, 국제고, 외국어고, 체육고, 예술고)의 학생은 지원이 불가능합니다.
+따라서, 특수목적고등학교 학생인 경우 동의대학교 일반학생전형으로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>0.4587155963302752</v>
+      </c>
+      <c r="E228" t="n">
+        <v>0.2616822429906542</v>
+      </c>
+      <c r="F228" t="n">
+        <v>0.2752293577981652</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 인문사회과학대학의 중어중국학과와 공과대학 신소재공학과로, 나군 일반학생 전형에서 32명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과를 파악하기 위해서는 각 학과별로 정원 내외 모집 인원을 확인해야 합니다. 제공된 정보 중 "전형별 모집단위별 모집인원" 표에서 정원 내외 모집인원을 살펴보겠습니다.
+주요 내용을 요약하면:
+- 나군 실기/실적(일반학생전형): 24명
+- 나군 실기/실적(경기실적우수자전형): 7명
+- 나군 학생부교과(농어촌학생전형): 16명
+- 나군 학생부종합(평생학습자전형): 11명
+- 나군 학생부종합(성인학습자(정원내)전형): 7명
+- 나군 학생부종합(성인학습자(정원외)전형 - 정원외): 40명
+- 나군 학생부종합(재직자전형 - 정원외): 7명
+- 나군 학생부종합(조기취업형계약학과전형 - 정원외): 21명
+이 중에서 가장 많은 모집인원을 가진 전형은 "나군 학생부종합(성인학습자(정원외)전형)"으로, 40명을 모집하고 있습니다.
+따라서, 2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과는 "나군 학생부종합(성인학습자(정원외)전형)"이며, 해당 모집인원은 40명입니다.</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>0.1616161616161616</v>
+      </c>
+      <c r="E229" t="n">
+        <v>0.1084745762711865</v>
+      </c>
+      <c r="F229" t="n">
+        <v>0.1414141414141414</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>마이스터고를 제외한 특수목적고등학교 출신자는 동의대 학생부교과 농어촌학생전형으로 지원할 수 없습니다.  지원 자격에 따르면, 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>你不属于特殊教育高中（特设目的高中）的学生，而是询问关于是否可以申请동义大学的农村学生类型学分制招生。根据提供的信息：
+- 特殊教育高中不在农村学生类型学分制招生的支持范围内。
+- 农村学生类型学分制招生支持以下类型的学校：
+  - 来自农村（镇或乡）地区的中等和高等学校的毕业生，且在中学阶段本人及其父母均居住在农村地区。
+因此，如果你是来自农村地区的特殊教育高中毕业生，并且你在中学阶段本人及其父母均居住在农村地区，则你可能符合申请条件。但具体还需要查看东义大学的详细招生要求和规定。
+建议直接访问东义大学官方网站或联系其招生办公室以获取最准确的信息。</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>0</v>
+      </c>
+      <c r="E230" t="n">
+        <v>0</v>
+      </c>
+      <c r="F230" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부의 합격자 평균 성적은 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: { 330.11 / 9.08 }
+- 영어 등급: { 3.30 / 0.67 }
+- 수능 4개 영역 등급: { 4.12 / 0.32 }
+따라서, 합격자들의 평균적인 성적은 다음과 같습니다:
+- 국어 + 수학 + 탐구(가산점 포함) 표준 변환 점수 합: 330.11
+- 영어 등급: 3.30
+- 수능 4개 영역 등급: 4.12
+이 데이터는 나군 학생부종합(조기취업형계약학과전형) - 정원외 수능 30명 모집단위의 평균 성적을 나타냅니다.</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>0.1325966850828729</v>
+      </c>
+      <c r="E231" t="n">
+        <v>0.0782122905027933</v>
+      </c>
+      <c r="F231" t="n">
+        <v>0.1215469613259669</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부의 최초합격자의 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 { 317.87 /  7.35 }입니다.
+이 숫자는 평균 표준 변환 점수가 317.87이고, 표준 편차가 7.35라는 것을 의미합니다.</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>0.2474226804123711</v>
+      </c>
+      <c r="E232" t="n">
+        <v>0.1052631578947369</v>
+      </c>
+      <c r="F232" t="n">
+        <v>0.2061855670103093</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+ - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+ - 충원 합격자 1차 발표: 2024년 2월 14일(수) 09:00
+ - 충원 합격자 2차 발표: 2024년 2월 15일(목) 09:00
+ - 충원 합격자 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지
+ 모든 발표는 홈페이지를 통해 개별 조회해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>给您提供的信息中，并没有提到具体的“合不合格发表时间”。为了获取准确的合格名单发布时间，建议直接咨询相关招生办公室或查看学校官方网站上的最新公告。通常这类信息会在学校的官方招生页面、社交媒体账号或者通过电子邮件通知申请者。如果有更具体的专业或学院名称，也可以提供给我，这样我可以帮助查找更加详细的信息。</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>0</v>
+      </c>
+      <c r="E233" t="n">
+        <v>0</v>
+      </c>
+      <c r="F233" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>나군 평생학습자전형, 성인학습자(정원내)전형, 성인학습자(정원외)전형, 재직자전형, 조기취업형계약학과전형의 면접고사 일정은 2024. 01. 20.(토)입니다.</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 면접일정에 대한 구체적인 날짜와 시간이 포함되어 있지 않습니다. 면접 일정과 관련된 자세한 내용은 다음과 같은 항목들을 참조해보시기 바랍니다:
+1. 나군 학생부종합(조기취업형계약학과전형) - 정원외 면접평가 방법에서 면접절차와 시간대가 제시되어 있습니다.
+2. 나군 학생부종합(평생학습자전형ㅣ성인학습자(정원내·외)전형ㅣ재직자전형) 면접평가 방법에서도 비슷한 정보가 포함되어 있습니다.
+3. 나군 학생부종합(조기취업형계약학과전형) - 정원외 동점자 처리기준에서는 "면접고사 성적 상위자" 순으로 처리한다고 언급되어 있지만, 실제 일정은 따로 안내되지 않았습니다.
+4. 나군 학생부종합(조기취업형계약학과전형) - 정원외 모집단위 및 모집인원에서는 해당 모집단위의 특수성을 언급하고 있지만, 면접일정은 포함되어 있지 않습니다.
+따라서, 면접 일정을 확인하려면 동의대학교 입학관리팀이나 관련 홈페이지를 통해 최신 안내사항을 확인하시거나, 직접 연락하여 확인하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
+        <v>0.2805755395683454</v>
+      </c>
+      <c r="E234" t="n">
+        <v>0.1376811594202898</v>
+      </c>
+      <c r="F234" t="n">
+        <v>0.2158273381294964</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>동의대 한의예과의 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>提供的信息中没有直接提到韩医本科（한의예과）的具体最低入学标准。但是，根据一般韩国大学的入学要求，可以推测以下几点：
+1. **高中毕业**：通常需要完成高中的学业并获得高中毕业证书。
+2. **学力证明**：对于特定专业或课程，可能还需要提供相应的学力证明或其他资格认证。
+3. **学科成绩**：虽然没有具体提到韩医本科的科目要求，但一般医学类专业会考虑学生的理科背景和相关科目的成绩。
+4. **其他条件**：可能会有面试、推荐信等附加要求。
+如果需要确切的最低入学标准，建议直接访问东国大学（동의대학교）官方网站或联系学校的招生办公室获取最新信息。网站上的详细招生指南通常会有最准确的要求说明。</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>0.1276595744680851</v>
+      </c>
+      <c r="E235" t="n">
+        <v>0.04444444444444444</v>
+      </c>
+      <c r="F235" t="n">
+        <v>0.1276595744680851</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>동의대학교는 수능 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시모집에서 대부분의 모집단위는 수능최저학력기준을 적용하지 않습니다. 
+특히, 표 '전형요소 반영비율'에서 확인할 수 있듯이:
+- 가군 수능(일반학생전형)은 모든 모집단위에 대해 수능최저기준이 없음
+- 나군 수능(일반학생전형)도 대부분의 모집단위에 대해 수능최저기준이 없음 
+- 다군 수능(일반학생전형)에도 수능최저기준이 없음
+그러나 일부 특별한 경우가 있습니다:
+- 나군 실기/실적 위주 전형에서는 디자인조형학과, 체육학과의 모집단위에 대해 수학(미적분 또는 기하) 응시자의 수학 표준점수 x 0.1 가산점을 반영하고 있습니다.
+따라서 일반적으로 정시모집에서 동의대학교는 수능최저학력기준을 적용하지 않지만, 특정 전형에서는 수학 관련 가산점을 제공하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>0.08888888888888889</v>
+      </c>
+      <c r="E236" t="n">
+        <v>0.06741573033707865</v>
+      </c>
+      <c r="F236" t="n">
+        <v>0.08888888888888889</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>2024. 02. 15.(목)부터 3차까지의 충원합격자는 다음과 같이 발표됩니다:
+- **1차 충원합격자 발표**: 2024. 02. 14.(수) 09:00
+- **2차 충원합격자 발표**: 2024. 02. 15.(목) 09:00
+- **3차 이후 충원합격자 발표** (개별 전화 통보): 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지
+모든 지원자는 이 일정에 따라 합격 여부를 확인해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>0.5027322404371585</v>
+      </c>
+      <c r="E237" t="n">
+        <v>0.3093922651933702</v>
+      </c>
+      <c r="F237" t="n">
+        <v>0.4262295081967213</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>2024년 2월 15일(목)부터 3차 이후 충원 합격자를 발표합니다. 이 발표는 홈페이지를 통해 개별적으로 이루어지며, 지원자는 해당 날짜에 합격 여부를 확인해야 합니다.
+추가적인 정보:
+- 2024년 2월 15일(목)부터 2024년 2월 20일(화)까지 3차 이후 충원 합격자를 발표합니다.
+- 이 발표는 홈페이지를 통해 개별적으로 이루어집니다.
+- 지원자는 해당 날짜에 합격 여부를 확인해야 합니다.
+따라서, 정확한 추가합격자 발표 일정은 다음과 같습니다:
+2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지
+이 기간 동안 홈페이지를 통해 개별적으로 합격자 발표가 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>0.4454545454545454</v>
+      </c>
+      <c r="E238" t="n">
+        <v>0.3027522935779817</v>
+      </c>
+      <c r="F238" t="n">
+        <v>0.2818181818181818</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>2024년 동점자 처리 및 추가 모집에 대한 내용은 다음과 같습니다:
+1. 최저합격선에서 동점자가 발생할 경우 그 인원을 모두 합격 처리합니다.
+2. 모집인원을 초과하는 인원만큼 차차년도 모집에서 감축하여 모집합니다.
+따라서 추가모집이 이루어질 수 있습니다. 예를 들어, 최저합격선에서 동점자가 발생하면 그 동점자들을 모두 합격 처리하고, 이를 통해 모집인원을 초과하는 경우 해당 인원만큼 차차년도 모집에서 감축하여 모집합니다.
+더 자세한 내용은 [입학관리 홈페이지](https://ipsi.deu.ac.kr/main.do)를 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>0.3118279569892473</v>
+      </c>
+      <c r="E239" t="n">
+        <v>0.09782608695652173</v>
+      </c>
+      <c r="F239" t="n">
+        <v>0.2043010752688172</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대한 정보는 다음과 같습니다.  
+모집단위 및 모집인원
+  - 미래융합대학 라이프융합학부
+  - 전형명: 학생부종합(평생학습자전형)
+  - 모집인원: 11명
+ 지원자격
+ - 평생학습자전형: 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+전형요소 반영 비율
+ - 서류: 70%
+ - 면접: 30%
+ 제출서류
+ - 고교 졸업(예정)자:
+  - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- 검정고시출신자:
+  - 검정고시 합격증서 사본 또는 합격증명서 1부
+  - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+  - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+ - 외국고교 졸업(예정)자:
+  - 공증받은 외국고교 졸업(예정)증명서 1부
+  - 공증받은 외국고교 성적증명서 1부
+  - 학교생활기록부 대체 서류(제출여부 선택 가능)
+  - 외국어로 작성된 경우, 원본과 공증받은 한국어 번역본을 함께 제출
+  - 고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 해당국가 주재 한국영사관에서 영사 확인을 발급받아 제출(단, 교육부에서 인정한 재외한국학교는 영사확인 없이 증명서 원본 제출 가능)
+  - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부
+  - 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 
+발급)를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.
+제출기간 및 장소
+ - 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+ - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+ 추가사항
+ - 검정고시출신자 및 외국고교 졸업(예정)자의 제출서류 중 학교생활기록부 대체 서류는 선택 제출서류로 ‘학교생활기록부 대체 서류’ 양식을 참조.
+ 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>평생학습자전형은 동의대학교에서 평생교육을 받은 학생들을 대상으로 하는 입학전형입니다. 이 전형에서는 다음과 같은 요소들이 반영됩니다:
+1. **학생부종합평가**:
+   - 서류 평가 비율: 70%
+   - 면접 평가 비율: 30%
+2. **제출서류**:
+   - 고교 졸업(예정)자: 고교 학교생활기록부 (온라인 제공 동의자는 제출할 필요 없음)
+   - 검정고시 출신자: 검정고시 합격증서, 성적증명서, 학교생활기록부 대체 서류
+   - 외국고교 졸업(예정)자: 공증받은 외국고교 졸업(예정)증명서, 성적증명서, 학교생활기록부 대체 서류
+3. **지원자격**: 
+   - 고등학교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+   - 2024년 3월 1일 기준으로 총 재직기간이 3년 이상인 재직자
+4. **평가영역 및 배점**:
+   - 공동체역량: 최고 140점, 최저 98점
+   - 학업역량: 최고 280점, 최저 196점
+   - 전공적합성: 최고 280점, 최저 196점
+5. **면접평가**:
+   - 문제해결능력과 진로정보 탐색능력을 평가합니다.
+   - 개별면접으로 진행되며 시간은 1인당 10분 이내입니다.
+6. **서류평가의 부정적 사례**:
+   - 학교생활기록부 작성 과정에서 개인의 경험과 노력에 근거하지 않고 과장된 내용 기재
+   - 동일한 내용의 의도적인 반복 기재
+   - 과장된 내용 기재 (창의적 체험활동 등)
+   - 학급이나 단체 단위의 내용을 모호하게 기재
+이러한 요소들을 종합적으로 평가하여 지원자를 선발합니다. 자세한 정보는 동의대학교 입학관리팀 웹사이트를 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>0.4181818181818182</v>
+      </c>
+      <c r="E240" t="n">
+        <v>0.2057291666666667</v>
+      </c>
+      <c r="F240" t="n">
+        <v>0.264935064935065</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원자격은 다음과 같습니다
+ - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>2024년 동계 정시 나군 평생학습자전형의 지원 자격은 다음과 같습니다:
+1. 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자여야 합니다.
+2. 만 30세 이상이어야 합니다 (1994년 2월 28일 이전 출생).
+이러한 자격을 갖춘 지원자가 해당 전형에 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>0.4791666666666667</v>
+      </c>
+      <c r="E241" t="n">
+        <v>0.4255319148936171</v>
+      </c>
+      <c r="F241" t="n">
+        <v>0.4791666666666667</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>2024년 1월 17일(수)에 실기고사가 있습니다. 체육학과, 디자인조형학과 (시각디자인, 산업디자인, 공예디자인), 레저스포츠학과, 태권도학과의 실기고사는 이 날 실시됩니다.
+대기실 및 입실 시간 안내는 2024년 1월 12일(금) 14:00 이후에 입학안내 홈페이지에서 조회할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>0.391304347826087</v>
+      </c>
+      <c r="E242" t="n">
+        <v>0.2444444444444445</v>
+      </c>
+      <c r="F242" t="n">
+        <v>0.3478260869565218</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 다음과 같이 준비해야 합니다:
+1. **장소**: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀으로 제출해야 합니다.
+2. **제출 기간**: 2024년 1월 3일(수)부터 1월 12일(금)까지 도착분에 한해 접수 가능합니다.
+3. **제출 서류**:
+   - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자가 아닌 경우)
+   - 경기실적증명서 1부
+     - 축구의 경우, 리그 실적증명서도 함께 제출해야 합니다.
+4. **추가 주의사항**:
+   - 최종등록자 중 외국고교 졸업예정자는 2024년 2월 16일(금)까지 추가로 발급한 졸업증명서를 제출해야 합니다.
+   - 반드시 본인의 서류제출 여부를 확인해야 하며, 미제출 또는 미확인으로 인한 불이익은 전적으로 지원자 본인에게 있습니다.
+따라서 체육학과의 실기고사는 위와 같이 동의대학교 입학관리팀으로 제출해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>0.0900900900900901</v>
+      </c>
+      <c r="E243" t="n">
+        <v>0.02727272727272727</v>
+      </c>
+      <c r="F243" t="n">
+        <v>0.07207207207207209</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>아니요, 수시 충원합격자 발표는 전화로 개별 연락을 하지 않습니다. 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 홈페이지를 통해 확인해야 합니다. 3차 이후 충원합격자 발표 과정에서만 개별 전화 통보가 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>2024년 2월 고교 졸업예정자가 당해 연도에 졸업하지 못하는 경우 합격이 취소되므로, 수시 충원합격자 발표 시에는 전화로 통보는 하지 않습니다. 
+수시 충원합격자 발표가 이루어질 때는 다음과 같은 절차를 따릅니다:
+1. 합격자 발표는 동의대학교 입학안내 홈페이지를 통해 공식적으로 진행됩니다.
+2. 지원자는 반드시 해당 홈페이지에서 자신의 합격 여부를 확인해야 합니다.
+3. 최초합격자 및 1차, 2차 충원합격자에게는 별도 개별 연락을 하지 않습니다.
+따라서 수시 충원합격자 발표 시에는 전화로 통보하지 않고 홈페이지에서 공고된 정보를 확인해야 합니다. 지원자는 이 기간 동안 합격 여부를 꼭 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>0.5181818181818183</v>
+      </c>
+      <c r="E244" t="n">
+        <v>0.3394495412844036</v>
+      </c>
+      <c r="F244" t="n">
+        <v>0.3454545454545454</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과의 정확한 수시모집 결과에 대한 정보가 제공된 데이터 내에서는 직접 확인할 수 없습니다. 하지만, 제공된 정보 중에서 2024학년도 주요 변경사항 표에서 경찰행정학과는 학과 분리(학부→학과), 학부 통합, 학과 명칭 변경의 범주에 포함되어 있습니다.
+이는 2023학년도에는 경찰행정학과가 존재하지 않았거나, 다른 형태로 운영되었음을 시사합니다. 따라서 2023학년도 경찰행정학과의 수시모집 결과를 확인하려면 동의대학교 입학처 웹사이트나 관련 공지사항을 참조해야 합니다.
+추가적으로, 제공된 데이터는 주로 2024학년도와 관련된 정보들로 구성되어 있으므로, 과거의 모집 상황에 대한 자세한 내용은 직접 동의대학교 입학처 웹사이트를 방문하여 확인하시거나, 해당 대학에 문의하시는 것이 가장 정확할 것입니다.</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>0.2843137254901961</v>
+      </c>
+      <c r="E245" t="n">
+        <v>0.1584158415841584</v>
+      </c>
+      <c r="F245" t="n">
+        <v>0.2254901960784313</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>아니요, 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시모집에서 일부 전형은 수능을 응시하지 않은 지원자도 지원할 수 있습니다. 특히, 다음과 같은 전형들은 수능 없이 지원 가능합니다:
+1. **학생부종합(평생학습자전형)**: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자를 대상으로 합니다.
+2. **학생부종합(성인학습자(정원내)전형)**: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자를 대상으로 합니다.
+3. **학생부종합(성인학습자(정원외)전형 - 정원외)**: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자를 대상으로 합니다.
+4. **학생부종합(재직자전형)**: 재직자 전형은 일반적으로 수능을 요구하지 않습니다.
+5. **학생부종합(조기취업형계약학과전형)**: 이 전형도 수능 없이 지원 가능합니다.
+6. **나군 실기/실적(경기실적우수자전형)**: 일부 모집단위에서는 수능을 요구하지 않습니다.
+따라서, 수능을 응시하지 않은 지원자가 해당 전형의 조건을 충족하면 정시모집에 지원할 수 있습니다. 하지만 모든 전형이 수능 없이 지원 가능하다는 것은 아니므로, 각 전형별로 공지된 지원 자격과 요구 사항을 확인하시기 바랍니다.
+자세한 내용은 동의대학교 입학 홈페이지를 참조하거나 학교 관계부에 문의하시는 것이 좋습니다. (https://ipsi.deu.ac.kr/main.do)</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>0.08176100628930819</v>
+      </c>
+      <c r="E246" t="n">
+        <v>0.03164556962025316</v>
+      </c>
+      <c r="F246" t="n">
+        <v>0.06918238993710692</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>네, 고등학교 졸업한지 10년이 지났더라도 정시 지원이 가능합니다. "고교유형별 지원자격" 표에 따르면, 일반고, 자율고, 특수목적고, 특성화고, 영재학교, 기타 학교, 검정고시, 외국고 출신자 모두 정시 지원이 가능합니다. 따라서 고등학교 졸업 시기와 상관없이 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 입학전형에 따르면, 일반고 졸업자 외에도 특성화고 등을 졸업한 재직자나 평생학습자 등이 지원 가능합니다. 하지만 고등학교 졸업 후 10년 이상 경과한 경우 정시 모집으로는 지원하기 어렵습니다.
+특히, 동의대학교의 '학생부종합(성인학습자전형)'이나 '학생부종합(재직자전형)' 등은 만 30세 이상인 자를 대상으로 하며, 이들은 고등학교 졸업 후 일정 기간 동안 재직 경력을 가지고 있어야 합니다.
+따라서, 고등학교 졸업한지 10년이 지났다면 다음과 같은 전형을 고려해볼 수 있습니다:
+1. **학생부종합(성인학습자전형)**: 만 30세 이상인 자를 대상으로 하며, 재직 경력이 필요합니다.
+2. **학생부종합(재직자전형)**: 만 30세 이상이고, 산업체 근무경력이 3년 이상인 재직자를 대상으로 합니다.
+만약 위의 전형에도 지원 자격이 맞지 않는다면, 해당 대학 홈페이지나 입학처에 문의하여 최신 정보와 자격 요건을 확인하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>0.2444444444444444</v>
+      </c>
+      <c r="E247" t="n">
+        <v>0.09701492537313433</v>
+      </c>
+      <c r="F247" t="n">
+        <v>0.1185185185185185</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 정시 일정은 다음과 같습니다
+1. 모집인원 확정 공고
+   - 일정: 2024년 1월 2일(화)
+   - 비고: 입학안내 홈페이지 공고
+2. 원서접수(인터넷)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. 서류 제출 (제출서류가 있는 경우)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 12일(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조)
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. 실기고사
+   - &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과
+     - 일정: 2024년 1월 16일(화)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+   - &lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과
+     - 일정: 2024년 1월 17일(수)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. 합격자 발표 및 등록금 납부
+   - 최초 합격자 발표
+     - 일정: 2024년 2월 2일(금) 14:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록
+     - 일정: 2024년 2월 7일(수) ~ 2월 13일(화) (은행마감시간 내)
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표
+     - 일정: 2024년 2월 14일(수) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록
+     - 일정: 2024년 2월 14일(수) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표
+     - 일정: 2024년 2월 15일(목) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록
+     - 일정: 2024년 2월 15일(목) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표
+     - 일정: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록
+     - 일정: 개별 전화 통보 시 안내
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+추가 유의사항:
+- 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 홈페이지를 통해 확인해야 합니다. 별도 개별 연락을 실시하지 않으며, 합격 여부 미확인으로 인해 등록하지 못했다 하더라도 등록(입학) 포기자로 간주합니다.
+- 최초 및 충원합격자는 전형일정에 명시된 등록 일정을 참고하여 지정 기일 내에 등록금을 납부해야 하며, 지정 기일 내에 등록금을 납부하지 않는 경우 입학을 포기하는 것으로 간주합니다.</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집일정은 다음과 같습니다:
+1. **원서접수**:
+   - 마감일: 2024년 1월 6일(토) 18시
+   - 접속 차단 예정 시간: 원서접수 마감일 2024년 1월 6일(토) 18시 정각에 원서접수 사이트 접속이 차단됩니다.
+   - 유의사항:
+     - 사전에 미리 접속하여 지원 내용 입력 및 전형료 결제를 완료해야 합니다.
+     - 마감 시한까지 원서접수를 완료하지 못한 경우, 지원자 본인의 책임입니다.
+2. **면접평가**:
+   - 일정: 정확한 날짜는 공지되지 않았지만, 일반적으로 면접은 원서 접수 후 1-2주 정도 뒤에 진행됩니다.
+   - 방법:
+     - 개별면접
+     - 평가시간: 1인당 10분 이내
+3. **최초합격자 발표**:
+   - 일정: 정확한 날짜는 공지되지 않았지만, 일반적으로 면접 후 2-3주 정도 뒤에 최초합격자를 발표합니다.
+   - 방법: 홈페이지를 통해 실시됩니다.
+4. **등록금 납부 및 등록**:
+   - 지정된 기간 내에 등록금을 납부해야 합니다 (일반적으로 합격자 발표 후 1-2주 정도).
+   - 납부하지 않은 경우, 입학을 포기하는 것으로 간주됩니다.
+5. **충원합격자 발표**:
+   - 일정: 최초합격자 발표 이후, 결원이 발생하면 충원합격자를 발표합니다.
+   - 방법: 홈페이지를 통해 실시되며, 3차까지의 충원합격자는 전화 연락 두절(3회 통화)로 인해 충원합격 통보가 어려운 경우 등록 포기자로 간주될 수 있습니다.
+6. **등록포기 및 환불**:
+   - 환불 신청기간: 2024년 2월 14일(수) ~ 2024년 2월 20일(화) 12:00
+   - 등록 포기 및 환불 절차는 온라인으로 진행됩니다.
+7. **기타 유의사항**:
+   - 지원자는 정시 모집요강과 본교 홈페이지에 게시되는 수험생 유의사항을 반드시 숙지해야 합니다.
+   - 합격 여부 미확인으로 인해 등록하지 못한 경우, 등록 포기자로 간주됩니다.
+이 일정은 일반적인 예측이며, 정확한 날짜와 절차는 동의대학교 입학관리 홈페이지에서 공식 발표될 것입니다. 따라서 최신 정보를 확인하기 위해서는 해당 사이트를 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>0.3857474825716499</v>
+      </c>
+      <c r="E248" t="n">
+        <v>0.1877424359968968</v>
+      </c>
+      <c r="F248" t="n">
+        <v>0.2199845081332301</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. 모집인원 확정 공고: 2024년 1월 2일(화)에 입학안내 홈페이지에 공고됩니다.
+2. 원서접수(인터넷): 2024년 1월 3일(수)부터 2024년 1월 6일(토) 18시까지 진행됩니다. 접수는 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [유웨이 어플라이](http://www.uwayapply.com)에서 가능합니다.
+3. 서류 제출 (제출서류가 있는 경우): 2024년 1월 3일(수)부터 2024년 1월 12일(금) 17시까지 도착해야 합니다. 서류 제출 대상자는 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편으로 발송해야 합니다.
+4. 실기고사 일정:
+   - &lt;가&gt;군 실기고사: 레저스포츠학과, 태권도학과는 2024년 1월 16일(화)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+   - &lt;나&gt;군 실기고사: 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과는 2024년 1월 17일(수)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+5. 합격자 발표 및 등록금 납부:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 모두 2024년 2월 2일(금) 14:00에 발표됩니다. 발표는 홈페이지에서 개별 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 2월 13일(화)까지 은행 마감시간 내에 등록해야 합니다.
+   - 충원 합격자 발표 및 등록:
+     - 1차 발표: 2024년 2월 14일(수) 09:00, 등록은 같은 날 09:00~16:00
+     - 2차 발표: 2024년 2월 15일(목) 09:00, 등록은 같은 날 09:00~16:00
+     - 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보, 등록은 개별 전화 통보 시 안내됩니다.
+모든 지원자는 전형일정에 명시된 합격자 발표일에 홈페이지를 통해 합격 여부를 확인해야 하며, 지정 기일 내에 등록금을 납부하지 않으면 입학을 포기하는 것으로 간주됩니다.</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>동의대학교 정시모집 일정에 대한 자세한 내용은 공식 홈페이지를 참조하시면 좋을 것 같습니다. 하지만 일반적인 절차와 주요 날짜들을 요약하여 알려드리겠습니다:
+1. 원서접수:
+   - 접수 기간: 2024년 1월 중순 (확정일자는 공지될 예정)
+   - 접수 사이트 오픈 시간: 정해진 시각에 맞춰 접속해야 함
+   - 전형료 결제 완료 후 수험번호 부여
+2. 합격자 발표:
+   - 최초합격자 발표: 2024년 1월 말 ~ 2월 초
+   - 충원합격자 발표: 2024년 2월 중순 (3차까지)
+3. 등록금 납부:
+   - 지정된 기간 내에 합격자들이 등록금을 납부해야 함
+4. 입학관리:
+   - 등록 및 입학 일정은 공지될 예정
+   - 등록포기 시 절차와 관련된 유의사항 확인 필요
+공식 홈페이지에서 가장 최신 정보를 얻으시는 것이 좋습니다. 특히 원서접수 마감일, 합격자 발표 일정, 등록금 납부 기한 등을 꼭 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>0.3496296296296296</v>
+      </c>
+      <c r="E249" t="n">
+        <v>0.1545319465081724</v>
+      </c>
+      <c r="F249" t="n">
+        <v>0.1925925925925926</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에서는 수능 성적자료의 온라인 제공에 동의하는 것으로 간주되며, 수능 성적이 요구됩니다. 따라서 수능 미응시자는 지원이 불가능합니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시 모집에서 수능을 미응시한 지원자가 지원할 수 있는 전형은 다음과 같습니다:
+1. **학생부종합(평생학습자전형)** - 이 전형에서는 수능 성적을 반영하지 않습니다.
+2. **학생부종합(성인학습자(정원내)전형)** - 이 전형에서도 수능 성적은 반영되지 않으며, 지원 자격이 주로 재직 경력에 기반합니다.
+3. **학생부종합(성인학습자(정원외)전형)** - 동일하게 수능 성적이 반영되지 않습니다.
+4. **학생부종합(재직자전형)** - 이 전형에서도 수능 성적은 반영되지 않으며, 주로 재직 경력과 학업역량을 평가합니다.
+5. **학생부종합(조기취업형계약학과전형)** - 이 전형에서는 수능 성적이 일부 전형요소에 포함되나, 전체적으로 수능 미응시자도 지원 가능합니다.
+이러한 전형들은 주로 학생부 교과성적, 면접 성적, 재직 경력 등을 중점으로 평가하므로, 수능을 미응시한 지원자들도 충분히 지원할 수 있는 기회가 있습니다.</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>0.1635687732342008</v>
+      </c>
+      <c r="E250" t="n">
+        <v>0.08239700374531836</v>
+      </c>
+      <c r="F250" t="n">
+        <v>0.1412639405204461</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 충원 합격 차수에 대한 정보가 존재하지않습니다.
+전년도의 전자공학과의 충원 합격은 36명까지 이루어졌습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>2024년도 모집 정보를 바탕으로, 전자공학과의 충원 합격은 3차 이후로 이루어집니다. 
+특히, "합격자 발표 및 등록금 납부 충원 합격자 3차 이후 (개별 전화 통보) 발표"와 "합격자 발표 및 등록금 납부 충원 합격자 3차 이후 (개별 전화 통보) 등록" 등의 일정이 2024년 2월 15일(목)부터 시작되어, 이는 3차까지의 충원 합격을 의미합니다.
+따라서 전년도에 해당하는 2023년도의 경우에도 전자공학과의 충원 합격은 최대 3차까지 이루어졌던 것으로 추정할 수 있습니다. 하지만 정확한 정보는 각 대학의 공식 웹사이트나 입학처에서 확인해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>0.264367816091954</v>
+      </c>
+      <c r="E251" t="n">
+        <v>0.1046511627906977</v>
+      </c>
+      <c r="F251" t="n">
+        <v>0.2068965517241379</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>동의대학교 입학관리팀 연락처는 051-890-4379~89입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 해당 정보가 제공된 데이터에서 동의대학교 입학처의 직접적인 연락 번호를 찾을 수 없습니다. 하지만, 지원자 유의사항에 포함된 문구 중 다음과 같은 정보가 있습니다:
+"(주)유웨이어플라이 : 1588-8988(http://www.uwayapply.com)"
+이는 동의대학교와 관련된 전화번호나 웹사이트는 아닌 것 같습니다. 동의대학교 입학처의 정확한 연락처를 찾기 위해서는 공식 홈페이지 또는 다른 공식 문서를 확인해 보시는 것이 좋을 것 같습니다.
+만약 이 정보가 도움이 되지 않았다면, 다음과 같은 방법으로 연락처를 얻을 수 있습니다:
+1. 동의대학교 공식 웹사이트를 방문하여 입학처 섹션에서 연락처를 찾으세요.
+2. 전형 관련 문의사항은 (주)유웨이어플라이에 연락하시는 것이 좋습니다.
+추가적인 정보나 도움이 필요하시다면 언제든지 알려주세요!</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>0.08839779005524863</v>
+      </c>
+      <c r="E252" t="n">
+        <v>0</v>
+      </c>
+      <c r="F252" t="n">
+        <v>0.06629834254143646</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락이 두절되어(3회 통화 시도) 충원합격 통보가 어려운 경우, 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다. 따라서 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화)) 동안 전화 연락을 받을 수 있도록 유의해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에게는 개별 전화 통보方式进行翻译：
+关于3次及之后补充录取的学生，如果在个别电话通知时无法接通电话，会如何处理？
+根据提供的信息，在2024年2月15日至20日的补充录取通知期间，如果多次尝试联系学生但未能成功接通电话，则会被视为该生已放弃录取资格。因此，如果在尝试通过电话进行补充录取通知时无法接通电话，学校将假设该学生已经放弃了录取机会，并不会再次尝试联系。
+具体来说，在2024年2月15日至20日的补充录取通知期间，如果多次拨打学生的电话但无人接听或未接通，则会被视为该生已放弃录取资格。这意味着即使后来该生可能愿意接受录取，学校也不会再进行联系，而是会按照预定顺序继续处理后续的学生。
+因此，建议所有被列为3次及之后补充录取的候选人，在此期间保持电话畅通，并确保能够及时接听来自学校的来电。如果因为任何原因无法接听，请尽快与学校取得联系以避免错过录取机会。</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>0.1403508771929824</v>
+      </c>
+      <c r="E253" t="n">
+        <v>0.08928571428571429</v>
+      </c>
+      <c r="F253" t="n">
+        <v>0.1403508771929824</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다
+6년 과정
+지원자 본인의 가족관계증명서 1부
+지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+중학교 학교생활기록부 1부
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부 추가 제출)
+부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부 추가 제출
+12년 과정
+지원자 본인의 주민등록초본 1부
+초등학교 학교생활기록부 1부
+중학교 학교생활기록부 1부
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+중·고등학교 재학 시 부, 모 모두 농어촌(읍·면)지역에서 거주한 자는 ‘6년과정' 서류 제출 가능
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+추가 정보
+제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+주의사항: 제출서류 미제출자는 불합격 처리됩니다. 
+주민등록초본, 가족관계증명서, 혼인관계증명서, 기본증명서는 주민등록번호 전체가 기재되어 있어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출하여야 합니다.
+상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출해야 합니다. 
+최종등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>6년 과정과 12년 과정에 따라 농어촌학생전형으로 지원시 제출해야 할 서류가 다릅니다.
+### 6년 과정
+- **지원자 본인의 가족관계증명서** (1부)
+- **지원자 본인, 부모의 주민등록초본** (각 1부, 총 3부)
+- **중학교 학교생활기록부** (1부) ※ 교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+- **고등학교 학교생활기록부** (1부) ※ 부모가 사망한 경우, 사망한 부 또는 모의 기본증명서 1부(기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부)를 추가로 제출
+- **고등학교 학교생활기록부** (1부) ※ 부모가 이혼한 경우, 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부를 추가 제출
+### 12년 과정
+- **지원자 본인의 주민등록초본** (1부)
+- **초등학교 학교생활기록부** (1부)
+- **중학교 학교생활기록부** (1부)
+- **고등학교 학교생활기록부** (1부) ※ 부모가 사망한 경우, 사망한 부 또는 모의 기본증명서 1부(기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부)를 추가로 제출
+- **고등학교 학교생활기록부** (1부) ※ 부모가 이혼한 경우, 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부를 추가 제출
+### 공통사항
+- **제출기간**: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+- **제출장소**: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+- **서류 미제출 시 불합격 처리**
+- **주민등록초본은 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.**
+- **상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출 가능합니다.**
+최종 등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출해야 합니다.
+추가로, 최종등록자에게는 다음과 같은 서류가 필요합니다:
+### 최종 등록자 추가 제출서류
+- **6년 과정**: 고교 졸업증명서, 지원자 본인, 부모의 초본 각 1부 (총 3부)
+- **12년 과정**: 고교 졸업증명서, 지원자 본인 초본 1부
+이러한 서류를 정확하게 제출해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>0.692223439211391</v>
+      </c>
+      <c r="E254" t="n">
+        <v>0.5203073545554335</v>
+      </c>
+      <c r="F254" t="n">
+        <v>0.5958378970427163</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야 할 서류는 다음과 같습니다
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 최종등록자라면 다음 서류도 제출해야 합니다
+1. 고교 졸업증명서
+2. 지원자 본인의 주민등록초본 1부 주민등록초본은 고교 졸업 이후 발급된 것이어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>12년 과정의 농어촌학생전형 지원시 제출해야하는 서류는 다음과 같습니다:
+- 지원자 본인의 주민등록초본 1부 
+- 초등학교 학교생활기록부 1부
+- 중학교 학교생활기록부 1부
+- 고등학교 학교생활기록부 1부(학생부 온라인 제공 비대상교 및 미동의자)
+추가로 주의사항은 다음과 같습니다:
+- 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분
+- 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+- 주민등록초본은 고교졸업 이후 발급되어야 함
+- 서류제출 여부는 홈페이지에서 확인 가능하며 반드시 본인의 서류제출 여부를 확인해야 함
+이러한 서류 제출이 필수적이고 미제출 또는 미확인 시 불이익을 받을 수 있으므로 주의가 필요합니다.</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>0.5285714285714286</v>
+      </c>
+      <c r="E255" t="n">
+        <v>0.3237410071942446</v>
+      </c>
+      <c r="F255" t="n">
+        <v>0.4285714285714286</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 기회균등 전형이라는 전형이 존재하지 않습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>提供的信息中没有直接提到关于低收入机会均等类型的特殊招生计划。为了得到准确答案，建议访问东国大学官方网站（https://ipsi.deu.ac.kr/main.do）查看最新的招生简章和政策说明。
+不过，通常情况下，许多大学会设有针对低收入家庭学生的特殊招生计划或奖学金项目来帮助他们获得入学机会。如果确实有这样的计划，学校会在其官方网页上公布相关信息。因此建议直接访问东国大学的官方网站获取最准确的信息。</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>0</v>
+      </c>
+      <c r="E256" t="n">
+        <v>0</v>
+      </c>
+      <c r="F256" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>제공된 데이터에는 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 포함되어 있지 않습니다. 따라서, 수능 최저등급에서 사탐 2 과목 평균산출 시 2.5등급이 나올 경우 절사 여부에 대한 정확한 정보를 확인하려면 입학안내 홈페이지(http://ipsi.deu.ac.kr)에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 수능 영어영역의 경우 등급에 따른 점수를 반영하는데, 이때 소수점 셋째 자리에서 절사한다는 내용이 포함되어 있습니다.
+따라서 사탐(사회탐구) 2개 과목의 평균을 산출할 때에도 소수점 셋째 자리에서 절사됩니다. 
+예를 들어, 2.5등급이 나왔다고 하면 이는 2.5로 취급되며, 절사되지 않습니다.
+따라서 사탐 2개 과목의 평균 등급이 2.5가 나오더라도, 최종적으로는 3등급으로 반영될 것입니다.
+요약하면:
+- 2.5등급은 그대로 2.5로 취급
+- 소수점 셋째 자리에서 절사 X 
+- 따라서 최종 등급은 3등급으로 반영
+이러한 방식으로 수능 성적을 처리합니다.</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>0.3020833333333333</v>
+      </c>
+      <c r="E257" t="n">
+        <v>0.06315789473684211</v>
+      </c>
+      <c r="F257" t="n">
+        <v>0.1979166666666667</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 발표됩니다. - 1차 발표: 2024. 02. 14.(수) 09:00 - 2차 발표: 2024. 02. 15.(목) 09:00 - 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 3차 이후 발표는 개별 전화 통보로 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시 모집에서 충원 합격자는 총 3차로 발표됩니다.
+1. **1차 충원 합격자 발표**: 2024년 2월 14일(수) 09:00
+2. **2차 충원 합격자 발표**: 2024년 2월 15일(목) 09:00
+3. **3차 이후 충원 합격자 발표**: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+이러한 순서로 충원 합격자를 발표하며, 최종적으로 3차 이후의 경우 전화 통보를 통해 합격 여부를 확인해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>0.4723618090452261</v>
+      </c>
+      <c r="E258" t="n">
+        <v>0.2233502538071066</v>
+      </c>
+      <c r="F258" t="n">
+        <v>0.3919597989949749</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>제공된 컨텍스트에 따라 e-비즈니스학과(e-비즈니스학과)의 최초 합격자 및 최종 등록생의 평균 점수는 다음과 같습니다:
+- 최초합격자:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 환산 점수 합: 317.20 (평균)
+  - 영어 등급 3.20 (평균)
+  - 수능 4개 영역 등급 4.17 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 438.60 (평균)
+- 최종 등록 학생:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 308.58 (평균)
+  - 영어 등급 3.66 (평균)
+  - 수능 4개 영역 등급 4.53 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 426.25 (평균)
+수능 4개 영역 등급이 4.6점이라면 최초 합격자(4.17점)와 최종 등록자(4.53점) 모두 평균을 약간 상회하는 수준입니다. 반드시 합격이 보장되는 것은 아니지만 다른 영역(국어, 수학, 탐구, 영어) 성적이 경쟁력이 있다면 충원 합격(추가모집)을 통해 합격할 가능성이 있습니다. 
+보다 정확한 평가를 위해 총 표준 변환 점수 합과 제공된 평균을 비교하는 것이 좋습니다. 총점이 평균에 근접하거나 그 이상이면 충원 합격을 통해 합격할 가능성이 더 높을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要查看一些具体信息：
+1. e비즈니스학과的招生计划和录取标准。
+2. 该专业的最低录取分数线（如果有的话）。
+3. 4.6这个分数在e비즈니스学和的排名情况。
+但是根据提供的表格信息，我们没有直接看到这些详细数据。不过我们可以做一些推断：
+1. 表格中显示了各专业的一般招生信息，但没有具体到每个专业的最低录取分数线。
+2. 4.6这个分数看起来是一个相对较高的分数（假设是基于0-9的等级系统），因为最高等级通常是8或9。
+根据一般情况，如果一个学生的成绩高于该专业的平均录取分数，那么他/她有可能通过正取的方式被录取。但是具体是否能够被e비즈니스学和录取还需要参考以下几点：
+1. 该专业2024年的实际招生计划人数。
+2. e비즈니스学和的最低录取分数线（如果有）。
+3. 其他考生的成绩分布情况。
+建议：
+- 访问东国大学官方网站或联系招生办公室获取e비즈尼斯学和的具体录取标准和分数线。
+- 查看历年的录取数据，了解该专业的实际录取分数范围。
+- 如果成绩确实很高，可以尝试申请并等待结果。
+希望这些信息对你有所帮助！如果有更多具体的数据，我们可以进行更准确的分析。</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>0.09917355371900825</v>
+      </c>
+      <c r="E259" t="n">
+        <v>0.005540166204986149</v>
+      </c>
+      <c r="F259" t="n">
+        <v>0.07162534435261708</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, e비즈니스학과의 영어 등급 평균은 3.66이고, 수능 4개 영역 등급 평균은 4.53입니다. 따라서, 현재 정시 등급이 5.3이라면 e비즈니스학과에 합격하기 어려울 수 있습니다. e비즈니스학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 e비즈니스학과의 입학전형에서 국어, 수학, 영어 등급을 기준으로 학생들의 경쟁력을 평가합니다. 주요 정보는 다음과 같습니다:
+1. **e비즈니스학과의 최종등록자 성적 분석**:
+   - e비즈니스학과의 최종등록자의 경우, 국어 + 수학 + 영어 등급 평균은 4.53입니다.
+   - 표준편차는 0.82로 비교적 낮습니다.
+2. **성적 분포**:
+   - e비즈니스학과의 최종등록자 중 국어영역의 등급 평균은 4.17이며, 표준편차는 0.56입니다.
+   - 수학영역의 등급 평균은 4.83이며, 표준편차는 0.28입니다.
+   - 영어영역의 등급 평균은 4.91이며, 표준편차는 0.28입니다.
+3. **등급 5.3의 위치**:
+   - e비즈니스학과 최종등록자의 국어, 수학, 영어 등급 중 가장 높은 점수를 가진 학생들의 등급이 4.91까지 갔습니다.
+   - 따라서 등급 5.3은 최상위권에 해당합니다.
+4. **합격 가능성**:
+   - e비즈니스학과의 경쟁률은 8.90으로 매우 높습니다 (89명이 지원하여 10명만 선발).
+   - 등급 5.3은 최상위권에 속하므로, 이 수준의 성적을 가진 학생이라면 최초합격 가능성은 상당히 높습니다.
+따라서, 국어 + 수학 + 영어 등급이 5.3인 경우 e비즈니스학과에서 최초 합격 가능성이 매우 높다고 볼 수 있습니다. 그러나 최종 결정은 입시 전략, 지원자의 전체 성적 및 경쟁률 등 다양한 요소에 따라 달라질 수 있으므로, 정확한 확신을 가질 수는 없습니다.</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>0.3017902813299232</v>
+      </c>
+      <c r="E260" t="n">
+        <v>0.1645244215938304</v>
+      </c>
+      <c r="F260" t="n">
+        <v>0.2199488491048593</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要查看一些具体的数据。根据您提供的信息，“e비즈니스학과”的招生情况如下：
+- 招生人数：10人
+- 报名人数：89人
+- 竞争比：8.90
+从这些数据可以看出，竞争非常激烈。
+接下来我们需要查看具体的录取标准。根据您提供的表格内容，“e비즈니스학과”的录取标准是：
+- 438.60 (加权平均分)
+假设“国语 + 数学 + 探究（2个）（加分后）标准化分数总和”为438.60，这通常意味着需要达到这个分数线才能被考虑。
+如果您提到的“이정도면 예비합격 가능할까요?”是指是否有可能获得预录取资格，那么我们需要知道具体的分数。假设您指的是国语 + 数学 + 探究（2个）（加分后）标准化分数总和为438.60左右的话，那么根据竞争比8.90来看，您的成绩应该非常接近或略高于这个分数线。
+但是，具体是否能获得预录取资格还需要考虑其他因素，例如英语等级、学科等级等。此外，由于存在同分情况下的处理规则，您可能需要查看具体的同分处理标准来确保自己的排名能够进入前38名。
+建议：
+1. 确认您的成绩是否达到或接近438.60的分数线。
+2. 检查其他科目（如英语）的成绩是否符合要求。
+3. 关注学校发布的具体录取通知和同分处理规则。
+如果您能提供具体的分数，我可以帮助您进行更详细的分析。</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>0.2054794520547945</v>
+      </c>
+      <c r="E261" t="n">
+        <v>0.06944444444444443</v>
+      </c>
+      <c r="F261" t="n">
+        <v>0.136986301369863</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.44이라면 간호학과에 합격하기 어려울 수 있습니다. 간호학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 간호학과의 모집요강을 바탕으로, 수능 성적 3.44로는 합격 가능성이 매우 낮다고 판단됩니다.
+주요 이유:
+1. **모집인원 및 경쟁률**: 
+   - 간호학과는 정원 내외로 각각 22명 모집합니다.
+   - 지원 인원이 많을 경우, 경쟁률은 매우 높아질 가능성이 큽니다.
+2. **성적 기준**:
+   - 동의대학교의 수능 최저 합격 기준은 대체로 3.5 이상입니다.
+   - 일부 모집단위에서는 4.0을 요구하기도 합니다.
+3. **수능 성적 분포**:
+   - 표준 변환 점수 평균이 높고, 표준 편차가 작다는 것은 전체 지원자의 수능 성적이 집중되어 있다는 것을 의미합니다.
+   - 3.44는 이 분포에서 상당히 낮은 점수입니다.
+4. **경쟁률**:
+   - 평균 경쟁률이 매우 높습니다 (10:1 이상).
+   - 일부 모집단위에서는 20:1 이상의 경쟁률을 보였습니다.
+따라서, 수능 성적 3.44로는 간호학과에 합격하기 어렵다고 판단됩니다. 그러나 최종 합격 여부는 면접 등 다른 평가 요소와 함께 결정되므로, 전반적인 지원 자질을 잘 보여줄 수 있는 준비를 하는 것이 중요합니다.
+추천 사항:
+1. **면접 준비**: 면접에서 자신의 장점을 잘 표현하고, 간호사로서의 열정과 적합성을 잘 설명할 수 있도록 준비하세요.
+2. **추가 지원**: 다른 학교나 전형을 고려해 보세요. 일부 대학에서는 3.44 이상의 성적도 충분히 고려할 수 있습니다.
+3. **자기소개서 및 서류 작성**: 잘 준비된 자기소개서와 관련 서류를 제출하여 지원자의 전체적인 자질을 잘 보여주세요.
+최종 결정은 입학전형위원회에서 내려지므로, 최선의 노력을 다한 후 결과를 기다리시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>0.1913875598086124</v>
+      </c>
+      <c r="E262" t="n">
+        <v>0.05769230769230769</v>
+      </c>
+      <c r="F262" t="n">
+        <v>0.1291866028708134</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 보면, 평균 영어 등급은 2.34이고,  수능 4개 영역 등급 평균은 3.37입니다. 
+따라서, 현재 정시 등급이 2.52이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 간호학과의 최종 등록자들의 수능 성적을 보면, 평균 점수가 약 300점대 중반에서 400점대 초반까지 다양하게 분포하고 있습니다. 특히, 일부 모집단위에서는 280점대에서 350점대의 성적이 보고되고 있습니다.
+당신이 말씀하신 수능 성적 2.52는 표준점수로 보이는데, 이 경우 대략 280-300 점 정도를 의미할 것입니다. 이 점수는 간호학과 모집단위의 평균 성적보다 낮은 편입니다.
+그러나 합격 가능성은 다음과 같은 요인들에 따라 달라질 수 있습니다:
+1. **모집인원 및 지원자 수**: 모집인원이 많고 지원자가 많은 경우 경쟁률이 높아져 합격 기준 점수가 상승할 수 있습니다.
+2. **전형요소의 균형**: 동의대학교는 수능 위주 전형과 실기/실적 위주 전형, 학생부교과 위주 전형인 등 다양한 전형을 운영합니다. 따라서 수능 성적이 낮더라도 다른 전형 요소가 우수하다면 합격 가능성은 높아질 수 있습니다.
+3. **개별 지원자의 전반적인 경쟁력**: 수능 점수 외에도 면접, 서류 평가 등에서 좋은 성적을 받으면 합격 가능성이 높아집니다.
+4. **모집단위 별 차이**: 간호학과는 여러 모집단위로 나뉘어 있으며, 각 모집단위의 경쟁률과 전형 요소 비율이 다를 수 있습니다.
+따라서, 정확한 합격 가능성 판단을 위해서는:
+- **모집단위별 지원자와 모집인원**: 해당 모집단위의 지원자 수와 모집 인원을 확인해야 합니다.
+- **전형요소 평가 기준**: 각 전형 요소에 대한 평가 기준과 비율을 파악해야 합니다.
+- **면접 및 서류 평가 결과**: 면접이나 서류 평가에서 좋은 성적을 받는 것이 중요합니다.
+따라서, 정확한 답변을 위해서는 동의대학교 입학 홈페이지나 해당 대학에 직접 문의하는 것이 가장 좋습니다. 또한, 전형 요소별로 강점을 갖추고 준비하는 것이 합격 가능성 향상에 도움이 될 것입니다.</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>0.1531531531531531</v>
+      </c>
+      <c r="E263" t="n">
+        <v>0.05429864253393666</v>
+      </c>
+      <c r="F263" t="n">
+        <v>0.1081081081081081</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.7이라면 간호학과의 평균 등급보다 낮은 성적을 가지고 있기 때문에 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 간호학과의 입학 경쟁률과 전형 요건을 고려해 답변 드리겠습니다.
+1. **경쟁률**: 간호학과는 일반적으로 높은 경쟁률을 보입니다. 특히 정시 모집에서는 더욱 치열합니다. 3.7이라는 성적이 어느 정도인지 명확히 알 수 없지만, 대체로 중간 이상의 성적일 것으로 추정됩니다.
+2. **전형 요건**: 간호학과는 주로 학생부 종합 전형을 통해 선발되며, 이 경우 정시 성적이 큰 영향을 미치지 않습니다. 학생부 종합 전형에서는 학업역량, 진로적합성, 인성 등 다양한 요소를 평가합니다.
+3. **전형 유형**: 간호학과는 주로 실기/실적 위주나 학생부종합 전형을 통해 선발됩니다. 정시 성적이 3.7이라면, 이 점수만으로는 합격 가능성은 낮습니다.
+4. **추천 사항**:
+   - **학생부 준비**: 강점을 잘 보여줄 수 있는 학생부를 작성하십시오.
+   - **진로적합성**: 간호학과에 대한 진로적합성을 잘 보여주는 내용을 포함하십시오.
+   - **면접 준비**: 면접에서는 자신의 열정과 의지, 그리고 간호사로서의 역량을 잘 표현해야 합니다.
+5. **추가 정보 필요**: 정확한 합격 가능성은 해당 대학의 전형 요건과 경쟁률 등을 고려해 판단해야 합니다. 각 모집단위별로 전형요소 반영비율이 다르므로, 구체적인 정보를 확인하시기 바랍니다.
+결론적으로, 3.7이라는 정시 성적만으로는 간호학과에 합격하기 어렵습니다. 그러나 학생부와 면접에서 강점을 잘 보여주면 합격 가능성은 높아질 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>0.1793478260869565</v>
+      </c>
+      <c r="E264" t="n">
+        <v>0.0546448087431694</v>
+      </c>
+      <c r="F264" t="n">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 2.58이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 간호학과의 정시 모집요강을 보면, 간호학과는 다음과 같은 특징이 있습니다:
+1. **모집인원**: 22명입니다.
+2. **지원 인원**: 145명으로 많은 지원자가 있습니다.
+3. **경쟁률**: 6.59:1입니다.
+4. **국어 + 수학 + 탐구(2개) 표준 변환 점수 합 평균**: 357.63점
+5. **영어 등급 평균**: 1.86등급
+당신의 성적인 국어+수학+탐구(2개) 표준변환점수 합이 2.58이라는 점을 고려하면, 이는 평균보다 낮은 수치입니다.
+**합격 가능성**: 
+- **경쟁률과 모집인원**: 많은 지원자가 경쟁하고 있으므로, 높은 경쟁률을 감안할 때 합격하기 어렵습니다.
+- **성적 평균**: 현재의 성적이 간호학과의 평균 점수보다 낮기 때문에, 합격 가능성은 매우 낮습니다.
+**추천 사항**:
+1. **다른 대학이나 전형 탐색**: 다른 대학이나 전형을 고려해보세요.
+2. **재도전**: 내년에 성적을 향상시키고 재응시를 고려해볼 수 있습니다.
+3. **추가 지원**: 다른 학과나 전형에서 지원해 볼 수도 있습니다.
+결론적으로, 현재의 성적로는 간호학과에 정시 전형으로 합격하기 어렵다고 판단됩니다.</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>0.2453987730061349</v>
+      </c>
+      <c r="E265" t="n">
+        <v>0.08024691358024691</v>
+      </c>
+      <c r="F265" t="n">
+        <v>0.1656441717791411</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 3번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>为了回答您的问题，我需要查看相关数据来确定游戏学专业（Game Engineering）的录取情况。根据提供的表格信息：
+1. 游戏学专业的招生计划人数是3人。
+2. 最初合格者有37名学生。
+3. 预备合格者的名额为10个。
+从这些信息来看，预备合格者的人数（10人）超过了该专业的招生计划人数（3人）。因此，预估您作为预备合格者中的第7名，有可能被录取。但最终结果取决于学校的具体录取规则和程序。
+建议您关注学校的官方通知，并保持通讯畅通以便接收进一步的通知。同时，请确保在规定的时间内完成所有必要的注册步骤以确认您的录取资格。</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>0.1098901098901099</v>
+      </c>
+      <c r="E266" t="n">
+        <v>0</v>
+      </c>
+      <c r="F266" t="n">
+        <v>0.06593406593406594</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 게임공학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.78입니다. 따라서, 현재 정시 등급이 4.16이라면 게임공학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 단, 추가 합격 몇 번을 받을지는 예측하기 어렵습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 게임공학과의 경우, 수능 성적 평균이 3.66이고 표준 편차가 1.16인 것을 확인할 수 있습니다.
+당신의 수능 성적이 4.16이라면, 이는 평균보다 약간 높은 점수입니다. 
+- 평균: 3.66
+- 표준 편차: 1.16
+- 당신의 점수: 4.16
+이를 기반으로 정규분포를 가정하면, 당신의 성적은 약 0.42 표준편차 이상 높은 수준입니다 (4.16 - 3.66 = 0.50, 0.50 / 1.16 ≈ 0.42).
+이 정도의 점수 차이는 상대적으로 좋은 성적을 의미합니다. 게임공학과는 경쟁률이 높지 않은 편이므로 추가 합격 가능성은 있습니다.
+하지만 정확한 추가 합격 확률을 예측하기 위해서는:
+1. 지원자의 수와 다양성
+2. 다른 전형 요소 (학생부, 면접 등)의 성적 
+3. 모집인원과 지원 인원 비율
+등 다양한 요인이 작용합니다.
+따라서 정확한 추가 합격 확률을 예측하기는 어렵지만, 수능 성적이 상대적으로 높은 편이라면 추가 합격 가능성은 있습니다. 최소 1~2개의 추가 합격 가능성이 있을 것으로 추정할 수 있습니다.
+결론적으로, 당신의 수능 성적은 좋은 점수이므로 추가 합격 가능성은 있으나, 정확한 확률을 알기 위해서는 더 많은 정보가 필요합니다.</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
+        <v>0.2621951219512195</v>
+      </c>
+      <c r="E267" t="n">
+        <v>0.07975460122699386</v>
+      </c>
+      <c r="F267" t="n">
+        <v>0.1646341463414634</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다.
+따라서, 현재 정시 등급이 3.75이라면 경영정보학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 높아보입니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 경영정보학과의 경우, 정시 모집에서 국어, 수학, 영어 등급 평균이 3.75인 지원자가 최초등록자로 가능한지 확인해볼 수 있습니다.
+주요 정보를 요약하면:
+1. **경쟁률 및 모집 인원**: 경영정보학과는 정시 모집에서 많은 지원자를 받습니다 (2024년 모집인원 95명, 지원인원 65명으로 경쟁률이 높습니다).
+2. **성적 평균**: 주어진 정보에 따르면 국어, 수학, 영어 등급 평균이 3.75입니다.
+3. **최초등록자 기준**:
+   - 최초등록자는 일반적으로 모집인원의 4% 이내로 선발됩니다 (2024년 경영정보학과는 95명 중 4%인 3-4명을 선발합니다).
+   - 성적 평균이 3.75라면, 이는 상당히 높은 점수입니다.
+4. **선발 기준**:
+   - 경쟁률이 매우 높기 때문에, 3.75의 등급 평균을 가진 지원자가 최초등록자로 선발될 가능성은 있습니다.
+   - 그러나 이는 모집인원과 지원자의 성적 분포에 따라 달라질 수 있으며, 다른 지원자의 성적이 매우 높다면 선발 가능성이 낮아질 수 있습니다.
+따라서, 3.75의 등급 평균을 가진 지원자가 경영정보학과 최초등록자로 선발될 가능성은 있지만, 확실한 답변을 위해서는 동일 모집단위에서 다른 지원자의 성적 분포와 경쟁률 등을 고려해야 합니다.
+추가적으로, 동의대학교 입학관리 홈페이지나 해당 학과에 직접 문의하시면 더 정확한 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>0.2527472527472527</v>
+      </c>
+      <c r="E268" t="n">
+        <v>0.06629834254143646</v>
+      </c>
+      <c r="F268" t="n">
+        <v>0.1538461538461538</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다. 
+따라서, 현재 정시 등급이 4.2이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 즉, 최초합격 가능성은 적습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要查看一些具体的信息。根据提供的信息，我们可以参考以下几点来判断是否有可能成为最终注册者：
+1. **支持资格**：需要满足特定的高中毕业条件和学科要求。
+2. **成绩要求**：通常会有最低分数限制。
+从您提供的信息来看，“4.2”这个数字可能是指学生的综合评价等级。但是，我们需要明确以下几点来做出判断：
+- 综合评价等级（如4.2）是否是最终注册的必要条件？
+- 是否有具体的最低等级要求？
+根据一般大学招生政策，通常会有特定的成绩或等级要求才能成为最终注册者。如果“4.2”是一个综合评价等级，并且学校规定了最低等级要求，则需要查看具体的要求。
+假设学校对综合评价等级（如GPA）的具体要求是不低于3.5（这是一个常见的标准），那么您的学生可能满足条件，但仍需确认具体的招生政策和要求。
+建议您直接访问东国大学的官方网站或联系学校的招生办公室以获取最准确的信息。如果需要进一步的帮助，请提供更多的具体信息或直接咨询学校。</t>
+        </is>
+      </c>
+      <c r="D269" t="n">
+        <v>0.05357142857142857</v>
+      </c>
+      <c r="E269" t="n">
+        <v>0</v>
+      </c>
+      <c r="F269" t="n">
+        <v>0.03571428571428571</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 따라서, 현재 정시 등급이 5.33이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要查看以下几个方面的信息：
+1. 经营信息学部2024年招生计划中的具体要求。
+2. 您的高考成绩（5.33）在当年的排名情况。
+3. 同等学力考生的具体录取标准。
+但是根据您提供的信息，我们可以做一些基本判断。从表格中可以看到：
+- 经营信息学部2024年招生计划中的国语、数学和英语平均分分别为4.31、5.37和4.89。
+- 该专业的标准差（标准偏差）为0.65。
+您的高考成绩是5.33，这在平均分的基础上略高于平均水平。但是，具体是否能够录取还需要考虑以下几个因素：
+1. 您的科目排名是否足够高：虽然您的数学分数较高，但国语和英语分数相对较低。
+2. 是否有其他特殊要求或加分项。
+建议您：
+- 访问东国大学官方网站获取最新的招生信息。
+- 核查自己的成绩在当年的具体排名情况。
+- 如果可能的话，咨询学校的招生办公室以获得更准确的信息。
+请注意，以上分析基于提供的有限数据。具体录取结果还需参考学校官方发布的详细招生政策和最终的录取分数线。</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E270" t="n">
+        <v>0</v>
+      </c>
+      <c r="F270" t="n">
+        <v>0.064</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>바이오응용공학부의 최초등록자 데이터를 기준으로 보면, 바이오응용공학부의 영어 등급 평균은 3.82이고, 수능 4개 영역 등급 평균은 4.74입니다. 
+따라서, 현재 정시 등급이 3.33이라면 바이오응용공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 바이오응용공학과의 경우, 전형요소 반영비율을 살펴보면 다음과 같습니다:
+- **학생부교과** : 70%
+- **면접** : 30%
+성적만으로 판단할 때, 수능 성적이 3.33 정도라면 학생부 교과성적이 높은 지원자들보다는 경쟁력이 약해 보입니다. 하지만 정시모집에서는 수능 점수 외에도 학생부 교과성적, 면접 등 다양한 요소가 반영되기 때문에, 다음과 같은 요인들을 고려해야 합니다:
+1. **학생부 교과성적** : 3.33 정도의 성적이면, 최상위권이 아닌 중간 수준일 가능성이 큽니다. 하지만 일부 모집단위에서는 중간 수준의 학생부 성적도 충분히 고려될 수 있습니다.
+2. **면접 성적** : 면접에서 좋은 평가를 받으면 이는 큰 가점이 될 수 있습니다.
+3. **추천서 및 기타 자료** : 추천서나 자기소개서 등에서 독특한 경험이나 특기를 잘 표현하면 긍정적인 영향을 줄 수 있습니다.
+4. **전형별 특성** : 바이오응용공학과는 특정 전공적합성이 요구되는 학과로, 지원자의 관심사와 적합성을 면접에서 잘 보여줄 수 있는 경우가 많습니다.
+따라서, 단순히 성적이 3.33이라면 최고의 경쟁력을 갖추지 못할 가능성이 높지만, 다른 요소들이 긍정적으로 작용한다면 최초등록자로 선발될 가능성은 있습니다. 
+**결론**: 성적만으로는 어렵다고 할 수 있지만, 학생부 교과성적, 면접 성적 등 다양한 요소를 잘 준비하고 제출한다면 최초등록자로 선발될 가능성이 있으므로, 지원을 고려해볼 만합니다.</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
+        <v>0.1911764705882353</v>
+      </c>
+      <c r="E271" t="n">
+        <v>0.06403940886699507</v>
+      </c>
+      <c r="F271" t="n">
+        <v>0.1274509803921569</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 4.4이라면 방사선학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 방사선학과는 정시 모집에서 수능 위주로 전형을 진행합니다. 방사선학과의 경우, 학생부교과와 출결은 반영되지 않으므로 성적만으로 판단됩니다.
+방사선학과의 수능 최저기준을 확인해야 합니다. 현재 제공된 정보에서는 해당 학과의 정확한 수능 최저기준이 명시되어 있지 않습니다. 하지만 일반적으로 방사선학과는 중등 교육 과정에서 과학적 능력이 요구되는 학과로, 국어, 수학, 영어 등 전반적인 성적이 필요할 것입니다.
+현재 제출된 정보만으로 판단하면 다음과 같은 점을 고려해야 합니다:
+1. **수능 최저기준**: 방사선학과의 정시 모집에서 수능 최저 기준이 있는지 확인하십시오.
+2. **성적 평균**: 현재 4.4 등급은 중간 정도입니다. 방사선학과는 과학적 능력이 요구되므로, 수학과 과학 등급이 높아야 합니다.
+3. **전반적인 성적**: 국어와 영어 등 다른 과목에서도 좋은 성적이 필요합니다.
+만약 방사선학과의 정시 모집에서 수능 최저기준이 4.5 이상이라면, 현재의 4.4 등급으로는 합격 가능성은 낮을 것입니다. 하지만 만약 최저 기준이 4.3 이하라면, 성적만으로는 가능성이 있습니다.
+**추천 사항:**
+1. **수능 최저기준 확인**: 동의대학교 홈페이지나 입학처에 문의하여 방사선학과의 정시 모집 수능 최저기준을 확인하세요.
+2. **성적 분석**: 현재 성적을 상세히 분석하고, 특히 수학과 과학 등급이 높은지 확인하세요.
+3. **추가 준비**: 필요하다면 추가 학습을 통해 성적을 향상시키는 것이 좋습니다.
+만약 정확한 정보를 얻기 위해 도움이 필요하시다면, 동의대학교 입학처에 직접 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="D272" t="n">
+        <v>0.2081218274111675</v>
+      </c>
+      <c r="E272" t="n">
+        <v>0.05612244897959184</v>
+      </c>
+      <c r="F272" t="n">
+        <v>0.1370558375634518</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 2.66이라면 이는 귀하의 성적이 평균보다 높음을 의미합니다. 따라서, 귀하는 방사선학과에 합격할 가능성이 있다고 볼 수 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 방사선학과 정시 모집에 대해 평균 경쟁률과 합격 기준을 고려해보겠습니다.
+방사선학과는 정시 모집인원이 1명이며, 최초합격자와 충원 합격자를 포함한 총 합격자는 2명입니다. 이에 따라 경쟁률은 약 2.67:1 (2명을 뽑기 위해 5명이 지원했음) 입니다.
+평균 수능 점수와 등급을 보면:
+- 국어 + 수학 + 탐구(2개) 표준 변환점수 합 평균은 약 3.04, 표준 편차는 1.57
+- 영어 등급 평균은 B (등급 점수 3), 표준 편차는 0.82
+- 수능 4개 영역(국어, 수학, 외국어, 사회) 표준 변환점수 합 평균은 약 3.15, 표준 편차는 1.67
+이러한 통계를 바탕으로 볼 때:
+1. 경쟁률이 2.67:1로 매우 낮습니다.
+2. 평균 수능 점수와 등급은 상대적으로 높지 않습니다.
+따라서, 지원자의 성적(국어 + 수학 + 탐구 3.04, 영어 B 등급)이 평균보다 약간 낮더라도 경쟁률이 매우 낮아 합격 가능성은 높다고 볼 수 있습니다. 
+하지만, 정시 모집인원이 매우 적기 때문에 다른 지원자들과의 차별화된 성적을 보여주거나 특별한 이유가 있다면 더 유리할 것입니다.
+결론적으로 2.67:1이라는 경쟁률은 상대적으로 안전한 수준으로 볼 수 있지만, 최상위권에 속하는 지원자들과의 차별화된 성적을 보여주는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D273" t="n">
+        <v>0.2541436464088397</v>
+      </c>
+      <c r="E273" t="n">
+        <v>0.07777777777777777</v>
+      </c>
+      <c r="F273" t="n">
+        <v>0.1602209944751381</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>제공된 정보에 따르면, 경찰행정학과의 2024학년도 수능(일반학생전형) 최종등록자 평균 수능 4개 영역 등급은 4.12입니다. 귀하의 성적이 3.66이라면, 이는 평균보다 높은 성적입니다. 
+경쟁률이 2020년도에 비해 낮아졌다는 점도 긍정적인 요소로 작용할 수 있습니다. 경쟁률이 낮아지면 합격 가능성이 상대적으로 높아질 수 있기 때문입니다.
+따라서, 귀하의 성적이 평균보다 높고 경쟁률이 낮아진 점을 고려할 때, 희망을 가져도 될 것으로 보입니다. 다만, 최종 결과는 여러 변수에 따라 달라질 수 있으므로, 최선을 다해 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>3.66의 GPA는 높지 않은 점수로 보입니다. 하지만 농어촌 학생전형의 경우 일반적으로 교과 성적이 중요한 요소가 아니며, 주거지역과 관련된 자격이 더 중요합니다.
+다음은 지원에 대한 몇 가지 고려사항입니다:
+1. **거주 지역**: 농어촌 또는 도서·벽지에 거주한 경험이 있어야 합니다.
+2. **학교생활기록부 제출**: 주민등록초본, 가족관계증명서 등 거주 증빙 서류가 필요합니다.
+3. **면접 및 서류 평가**: 면접과 서류 평가는 교과 성적이 아닌 지원자의 전반적인 능력과 적합성을 평가하기 때문에 중요합니다.
+만약 거주 지역 자격이 충족된다면, 3.66의 GPA로도 합격 가능성은 있습니다. 하지만 경쟁률이 높을 수 있으므로 확실한 합격을 보장받기 위해서는:
+- **거주 증빙 서류**를 체크하고 준비해야 합니다.
+- **면접 준비**: 지원 동기, 지역적 배경 등에 대해 잘 준비해야 합니다.
+입학사정관들이 다양한 요소를 종합적으로 평가하기 때문에, 교과 성적이 낮더라도 다른 강점을 보여주면 합격 가능성은 있습니다.</t>
+        </is>
+      </c>
+      <c r="D274" t="n">
+        <v>0.3216374269005848</v>
+      </c>
+      <c r="E274" t="n">
+        <v>0.06470588235294117</v>
+      </c>
+      <c r="F274" t="n">
+        <v>0.152046783625731</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>귀하께서 지원하신 학과에 따라서 합격될 확률은 달라질 수 있습니다.
+2024년 동의대학교 일반학생전형에서 예비 25번 이상이 합격한 학과는 다음과 같습니다.
+- **영어영문학과**
+- **경영정보학과**
+- **e비즈니스학과**
+- **간호학과**
+- **신소재공학과**
+- **고분자나노공학과**
+- **의생명공학과**
+- **바이오의약공학과**
+- **식품공학과**
+- **산업경영빅데이터공학과**
+귀하께서 지원하신 학과가 위 학과에 포함된다면, 귀하께서 합격하실 확률은 있다고 볼 수 있습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>25번의 예비 등록 순위에서 합격할 확률은 매우 낮습니다. 정시 모집에서는 일반적으로 많은 지원자가 경쟁하기 때문에, 예비 등록 순위가 높을수록 합격 가능성은 줄어듭니다.
+하지만 모든 것이 결정적인 것은 아닙니다:
+1. 다른 지원자의 성적과 서류 평가 결과에 따라 변동이 있을 수 있습니다.
+2. 동점자 처리 기준에 따라 순위가 바뀔 수도 있습니다.
+3. 학교 측에서 추가로 모집 인원을 늘릴 가능성도 있습니다.
+현재 상황에서는 최선의 준비를 하는 것이 중요합니다:
+- 성적을 다시 점검하고 필요하다면 보강하세요
+- 서류 준비에 신경 쓰세요 
+- 면접(만 해당한다면)에서 좋은 모습 보여주세요
+결과가 나올 때까지 기다리면서도 다른 대비를 해두는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D275" t="n">
+        <v>0.2418300653594771</v>
+      </c>
+      <c r="E275" t="n">
+        <v>0.05921052631578948</v>
+      </c>
+      <c r="F275" t="n">
+        <v>0.130718954248366</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 법경찰행정학부라는 학부는 존재하지않습니다.  
+동의대학교 경찰행정학과의 최종등록자와 최초합격자의 평균 성적을 비교하여 안정권과 문 닫고 들어갈 수 있는 성적을 추정할 수 있습니다.
+- **최종등록자 평균 성적:**
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 332.86
+   - 영어 등급: 4.00
+   - 수능 4개 영역 등급: 4.12
+   - 수능 4개 영역 표준 변환 점수 합: 447.86
+- **최초합격자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 330.71
+  - 영어 등급: 3.14
+  - 수능 4개 영역 등급: 3.87
+  - 수능 4개 영역 표준 변환 점수 합: 452.57
+### 안정권과 문 닫고 들어갈 수 있는 성적 추정
+- **경찰행정학과:**
+  - 안정권: 최초합격자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 331점 이상, 수능 4개 영역 표준 변환 점수 합 약 453점 이상)
+  - 문 닫고 들어갈 수 있는 성적: 최종등록자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 333점 이상, 수능 4개 영역 표준 변환 점수 합 약 448점 이상)
+이 성적을 기준으로 준비하시면 안정권 또는 문 닫고 들어갈 수 있는 성적을 받을 수 있을 것입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 법경찰행정학부에 대한 정확한 합격 기준을 말씀드리기는 어렵습니다. 하지만 일반적으로 다음과 같은 요소들을 고려할 수 있습니다:
+1. **전반적인 경쟁률**: 동의대학교는 경쟁이 매우 치열한 대학 중 하나입니다. 특히 법경찰행정학부는 인기 학과로, 정시 모집에서도 높은 경쟁률을 보일 가능성이 큽니다.
+2. **성적 평균**: 
+   - **수능 성적**: 대부분의 합격자들은 수능 국어, 수학, 영어 등 주요 과목에서 90점 이상의 점수를 받았습니다.
+   - **학생부 성적**: 학생부 교과성적이 높은 학생들이 선호됩니다. 특히 국어, 사회, 과학 등의 과목에서 우수한 성적을 보여주는 것이 중요합니다.
+3. **예상 평균 점수**:
+   - **안정권**: 수능 1등급의 국어와 수학, 영어 등급이 4등급 이상인 경우를 기준으로 하면 안정적인 합격 가능성이 있습니다.
+   - **문 닫고 들어갈 수 있는 수준**: 수능 2등급의 국어와 수학, 영어 등급이 3등급 이상인 경우를 기준으로 하면 문을 닫아도 충분히 합격할 수 있을 것입니다.
+4. **추천 사항**:
+   - 정확한 예상 점수는 동의대학교 입학 홈페이지나 전형요강을 통해 확인하는 것이 가장 정확합니다.
+   - 최근 몇 년간의 합격자들의 성적 분포를 참고하면 도움이 될 수 있습니다.
+5. **추천 과목**:
+   - 국어, 수학, 영어 등 주요 과목에서 높은 점수를 받는 것이 중요합니다.
+   - 사회 과목에서도 우수한 성적을 보여주는 것이 좋습니다.
+6. **학생부 성적**:
+   - 학생부 교과성적이 높은 학생들이 선호됩니다. 특히 국어, 사회, 과학 등의 과목에서 우수한 성적을 보여주는 것이 중요합니다.
+결론적으로, 동의대학교 법경찰행정학부에 정시로 들어가려면 수능 1등급의 국어와 수학, 영어 등급이 4등급 이상이고, 학생부 교과성적이 높은 경우를 기준으로 하면 안정적인 합격 가능성이 있습니다. 문을 닫아도 충분히 합격할 수 있는 수준은 수능 2등급의 국어와 수학, 영어 등급이 3등급 이상인 경우입니다.
+추가 정보를 얻기 위해서는 동의대학교 입학 홈페이지나 전형요강을 확인하는 것이 가장 정확합니다.</t>
+        </is>
+      </c>
+      <c r="D276" t="n">
+        <v>0.3283983849259758</v>
+      </c>
+      <c r="E276" t="n">
+        <v>0.09176788124156544</v>
+      </c>
+      <c r="F276" t="n">
+        <v>0.1668909825033647</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>24학년도 모집단위에서 보육가정상담학과에서 아동학과로 변경되었습니다. 아동학과에 대해서 대답을 해드리겠습니다.
+	아동학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+	따라서, 현재 정시 등급이 5.33라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+	자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>2024년도 동의대학교 보육가정상담학과에 대한 정보를 확인해보겠습니다.
+1. **모집단위와 전형요소 반영비율**:
+   - 보육가정상담학과는 아동학과로 분류됩니다.
+   - 2024년도에는 아동학과가 인문사회과학대학에 속해 있습니다.
+2. **전형요소 반영비율**:
+   - 학생부교과 위주 전형입니다.
+   - 전형요소 반영 비율은 다음과 같습니다:
+     - 학생부교과: 100%
+     - 출결: 0%
+     - 서류: 0%
+     - 면접: 0%
+     - 실기: 0%
+     - 수능: 0%
+3. **학생부 교과성적 반영방법**:
+   - 반영학기는 고교 졸업예정자인 경우 1학년 1학기부터 3학년 1학기까지입니다.
+   - 반영과목은 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 8과목입니다.
+4. **성적 평균 등급**:
+   - 성적이 5.33이라면, 이는 대체로 좋은 성적으로 보입니다.
+   - 동의대학교에서는 학생부 교과성적을 매우 중요하게 평가하므로, 5.33이라는 성적은 좋은 기반을 제공합니다.
+5. **합격 가능성**:
+   - 합격 가능성은 여러 요인에 따라 다릅니다.
+   - 다른 지원자들과의 경쟁 상황을 고려해야 합니다.
+   - 동의대학교에서는 보통 4.0 이상의 성적을 요구하는 편입니다.
+따라서, 5.33이라는 성적만으로는 확실하게 합격할 수 있는 기반은 제공하지만, 다른 지원자들과의 경쟁 상황을 고려해야 합니다. 이성적으로 좋은 성적이므로, 합격 가능성은 높다고 볼 수 있습니다.
+추가 정보를 확인하거나, 동의대학교에 직접 문의해보는 것이 가장 정확한 답변을 제공할 것입니다.</t>
+        </is>
+      </c>
+      <c r="D277" t="n">
+        <v>0.2136363636363637</v>
+      </c>
+      <c r="E277" t="n">
+        <v>0.0639269406392694</v>
+      </c>
+      <c r="F277" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>동의대학교의 충원 합격자 발표 및 등록 일정에 따르면, 충원 합격자 발표는 1차, 2차, 그리고 3차 이후로 나뉘어 진행됩니다. 3차 이후의 충원 합격자 발표는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보로 이루어집니다.
+예비 12번을 받으셨다면, 앞선 예비 번호를 받은 지원자들이 등록을 포기하거나 다른 대학에 등록하는 경우, 합격 가능성이 있습니다. 충원 합격은 지원자들의 등록 포기 여부에 따라 달라지므로, 정확한 예측은 어렵습니다. 하지만 예비 번호가 12번이라면, 충원 합격 가능성이 아예 없는 것은 아닙니다.
+충원 합격자 발표 기간 동안 전화 통보를 기다리시고, 다른 대학의 등록 상황도 주시하시기 바랍니다. 간절한 마음이 잘 전달되어 좋은 결과가 있기를 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 보육가정상담 전형에 대한 정보를 바탕으로 답변 드리겠습니다.
+보육가정상담 전형은 일반적으로 최초합격자와 충원합격자를 선발하며, 충원 합격자는 예비 후보 순위로 결정됩니다. 예비 12번을 받았다는 것은 해당 학과에서 12번째로 예비로 선정되었다는 의미입니다.
+충원 합격 가능성은 다음과 같은 요인에 따라 달라질 수 있습니다:
+1. **모집 인원**: 충원 합격 가능 인원이 얼마나 되는지 확인해야 합니다.
+2. **예비 후보 수**: 예비 12번을 받았다면, 이전 차수에서 이미 많은 학생들이 선발되었을 가능성이 있습니다.
+3. **경쟁률**: 전반적인 경쟁률과 충원 합격자의 평균 점수가 중요합니다.
+일반적으로 예비 후보 순위가 높은 경우, 충원 합격 가능성은 높습니다. 하지만 정확한 확률을 알기 위해서는:
+- **모집인원**: 동의대학교 입학 홈페이지나 공식 안내서를 확인하여 현재 모집인원과 예비 후보 수를 파악해야 합니다.
+- **예비 순위**: 예비 12번이라는 정보만으로는 충분한 판단 기준이 아닙니다. 전반적인 경쟁 상황을 고려해야 합니다.
+따라서, 최종적으로 합격 가능성은 모집인원과 예비 후보 수, 그리고 경쟁률 등을 종합적으로 고려하여 판단해야 합니다. 동의대학교 입학 홈페이지나 공식 안내서를 확인하시거나, 입학처에 직접 문의하시는 것이 가장 정확한 정보를 얻는 방법입니다.
+추가로, 학과별 모집인원과 예비 후보 수 등을 확인해 보시고, 입학처에 상세히 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="D278" t="n">
+        <v>0.3374485596707819</v>
+      </c>
+      <c r="E278" t="n">
+        <v>0.1363636363636364</v>
+      </c>
+      <c r="F278" t="n">
+        <v>0.1893004115226337</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>정시 성적 4.75로 지원 가능한 학과를 알아보겠습니다. 제공된 데이터에서 최종등록자의 수능 4개 영역 등급 평균을 기준으로 분석해보겠습니다.
+### 지원 가능 학과
+- **국어국문학과**: 4.92 (평균)
+- **중어중국학과**: 5.68 (평균)
+- **일본학과**: 4.87 (평균)
+- **영어영문학과**: 5.16 (평균)
+- **문헌정보학과**: 4.82 (평균)
+- **평생교육·청소년상담학과**: 5.22 (평균)
+- **아동학과**: 7.08 (평균)
+- **금융경영학과**: 5.41 (평균)
+- **재무부동산학과**: 5.82 (평균)
+- **무역학과**: 5.18 (평균)
+- **유통물류학과**: 5.45 (평균)
+- **회계학과**: 4.99 (평균)
+- **국제관광경영학과**: 5.41 (평균)
+- **호텔·컨벤션경영학과**: 6.12 (평균)
+- **외식경영학과**: 4.91 (평균)
+- **의료경영학과**: 5.92 (평균)
+- **식품영양학과**: 5.92 (평균)
+- **기계공학과, 로봇자동화공학과, 자동차공학과**: 6.30 (평균)
+- **조선해양공학과**: 6.16 (평균)
+- **신소재공학과, 고분자나노공학과**: 5.78 (평균)
+- **환경공학과, 화학공학과, 응용화학과**: 5.73 (평균)
+- **의생명공학과, 바이오의약공학과, 식품공학과**: 5.41 (평균)
+- **인간공학과, 제품디자인공학과**: 5.72 (평균)
+- **산업경영빅데이터공학과**: 5.27 (평균)
+- **인공지능학과**: 5.25 (평균)
+- **전기공학과, 전자공학과**: 5.37 (평균)
+- **게임공학과**: 4.78 (평균)
+- **영화학과**: 5.04 (평균)
+### 유아교육학과
+유아교육학과의 경우, 최종등록자의 수능 4개 영역 등급 평균이 4.18로 나타나 있습니다. 따라서, 4.75의 성적으로는 유아교육학과에 지원하기 어려울 것으로 보입니다.
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>4.75라는 수능 점수는 상당히 높은 점수입니다. 한국의 대다수 고등학교 학생들이 수능에서 얻을 수 있는 평균 점수보다 훨씬 높습니다. 이 점수로는 대부분의 대학과 전공에 충분한 경쟁력을 가질 수 있을 것입니다.
+유아교육학과의 경우, 일반적으로 다음과 같은 특징이 있습니다:
+1. **입학전형**: 유아교육학과는 종종 학생부 중심의 입학전형을 채택합니다. 이는 학생들의 성적 외에도 인성, 활동 등 다양한 요소를 고려합니다.
+2. **수능 점수**: 수능 점수가 높다면, 이점은 유리하게 작용할 것입니다. 하지만 유아교육학과에서는 학생부와 면접 등의 평가도 중요하므로, 수능 점수만으로는 판단하기 어렵습니다.
+3. **학생부 및 면접**: 유아교육학과에서는 학생부에서의 활동, 인성, 창의력 등을 중점적으로 평가합니다. 따라서 수능 점수가 높더라도 학생부와 면접 등 다른 요소들이 부족하다면 합격 가능성은 낮을 수 있습니다.
+4. **경쟁률**: 유아교육학과의 경쟁률은 대체로 높습니다. 특히 인기 있는 대학이나 전공에서는 더욱 그렇습니다. 따라서 4.75라는 점수만으로는 확실한 합격을 보장할 수 없습니다.
+결론적으로, 4.75라는 수능 점수로 유아교육학과에 지원한다면 좋은 성적을 가지고 있는 것은 사실입니다. 하지만 입학전형의 종류와 평가 기준을 고려하여 전반적인 경쟁력을 판단해야 합니다. 학생부와 면접 등 다른 요소들도 충분히 준비하고, 대비하는 것이 중요합니다.
+추가적으로, 유아교육학과에 지원하기 위해서는:
+- **학생부 작성**: 활동 기록을 정확하게 작성하고, 인성과 창의력을 보여줄 수 있는 내용을 포함시켜야 합니다.
+- **면접 준비**: 면접에서도 유아교육에 대한 열정과 이해를 잘 표현할 수 있어야 합니다.
+이러한 요소들을 모두 고려하여 지원하면 더 좋은 결과를 얻을 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="D279" t="n">
+        <v>0.1890547263681592</v>
+      </c>
+      <c r="E279" t="n">
+        <v>0.04738154613466335</v>
+      </c>
+      <c r="F279" t="n">
+        <v>0.09950248756218906</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>보육가정상담학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+따라서, 현재 정시 등급이 4.16라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집에서 보육가정상담학과(현재 아동학과)를 지원하실 경우, 환산등급 4.16은 좋은 성적입니다만, 최종 합격 여부는 여러 요소에 따라 달라질 수 있습니다.
+아래 몇 가지 점을 고려해보세요:
+1. **전형 유형**: 보육가정상담학과는 일반학생전형으로 수능 위주로 평가됩니다. 따라서 수능 성적이 중요합니다.
+2. **수능 최저기준**: 2024년 동의대학교의 수능 최저기준은 공개되지 않았습니다만, 과거 데이터를 참고하면 보통 3.5~4.0 정도의 등급이 필요했습니다. 따라서 4.16은 충분히 경쟁력을 갖추고 있습니다.
+3. **모집인원 및 지원자 수**: 각 학과의 모집인원과 지원자 수에 따라 달라질 수 있습니다. 지원자가 많다면 낮은 등급도 합격할 수 있지만, 모집인원이 적다면 높은 등급을 요구할 수도 있습니다.
+4. **학과 특성**: 보육가정상담학과는 사회적 책임감과 인성이 중요하게 평가되는 학과입니다. 따라서 학생부와 면접에서도 좋은 평가를 받는 것이 중요합니다.
+5. **전형요소 반영비율**: 수능 위주로 평가되므로, 수능 성적이 가장 중요한 요인입니다. 하지만 전반적인 학업 역량과 인성도 고려됩니다.
+6. **경쟁률**: 2023년의 경우 보육가정상담학과(현재 아동학과)의 경쟁률은 약 1:4~5 정도였습니다. 이는 좋은 성적을 가진 지원자가 많았음을 의미합니다.
+결론적으로, 환산등급 4.16은 충분히 합격 가능성을 높입니다만, 최종 결과는 모집인원과 지원자 수, 경쟁률 등 여러 요소에 따라 달라질 수 있습니다. 따라서 최선을 다해 준비하고, 학생부와 면접에서도 좋은 평가를 받도록 노력하는 것이 중요합니다.
+추후 동의대학교 입학 홈페이지나 공지사항을 확인하여 최신 정보를 참고하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D280" t="n">
+        <v>0.2579185520361991</v>
+      </c>
+      <c r="E280" t="n">
+        <v>0.07727272727272727</v>
+      </c>
+      <c r="F280" t="n">
+        <v>0.1538461538461539</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>아니요. 소프트웨어융합학과는 정시로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>2024학년도 동일한 모집단위에 대한 정보를 제공하겠습니다.
+- **소프트웨어융합학과**는 정시모집에서 수능 위주로 모집되는 학과입니다.
+- 해당 학과의 전형요소 반영비율은 다음과 같습니다:
+  - 국어 + 수학 + 영어 + 탐구(2개 과목) 표준점수: 100%
+- **최종등록자**의 성적을 참고하면, 평균적인 등급과 점수를 추정할 수 있습니다. 예를 들어:
+  - 국어 + 수학 + 영어 + 탐구(2개 과목) 표준변환점수 합: {434.70 / 8.01} (ICT융합공과대학 소프트웨어공학부)
+- 이는 평균적으로 국어, 수학, 영어 등급이 높은 점수를 받았음을 의미합니다.
+따라서 **소프트웨어융합학과**로 정시로 들어가려면:
+1. **국어, 수학, 영어 등급**: 4등급 이상을 목표로 해야 합니다.
+2. **탐구 과목**: 탐구 과목 중 최상위 2개 과목의 표준점수를 잘 받아야 합니다.
+**추천 절차:**
+1. 수능 성적 예측 및 분석
+2. 모집요강과 전형요소 반영비율 확인
+3. 학교생활기록부와 서류 준비
+이 정보는 2024학년도의 경우이며, 실제 입시 상황은 변동될 수 있으므로 공식 홈페이지를 통해 최신 정보를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D281" t="n">
+        <v>0.072992700729927</v>
+      </c>
+      <c r="E281" t="n">
+        <v>0.03676470588235294</v>
+      </c>
+      <c r="F281" t="n">
+        <v>0.072992700729927</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과는 서류 평가(공동체 역량, 학업 역량, 전공 적합성)과 면접 고사(400점 만점), 
+	학생부 교과성적을 합쳐서 평가합니다. 
+	준비해야하는 서류와 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>1. **면접 점수와 세특(학교생활기록부)의 중요도**:
+   - 소프웨어융합과의 경우, 면접 점수와 서류 평가(세특 내용)는 각각 중요한 역할을 합니다.
+   - 일반적으로 서류 평가는 학생의 전반적인 성적, 활동 경력 등을 종합적으로 판단하며, 면접에서는 지원자의 문제 해결 능력과 입학 후 학업 계획 등 실질적인 대화를 통해 평가됩니다.
+2. **서류 준비**:
+   - **고교 졸업(예정)자**: 제출서류는 없습니다 (단, 학생부 온라인 제공 동의자는 제외).
+   - **검정고시 출신자 및 외국 고교 졸업 예정자**: 검정고시 합격증서 사본 또는 합격증명서 1부, 검정고시 성적증명서 1부가 필요합니다. 학교생활기록부 대체 서류는 선택적으로 제출할 수 있습니다.
+3. **추천사항**:
+   - **세특 내용**: 세특(학교생활기록부)에서는 지원자의 학업태도, 학업성취, 열정 등이 중요합니다. 구체적인 활동과 경험을 기재하며, 교사의 평가와 근거를 함께 제출하는 것이 좋습니다.
+   - **면접 준비**: 면접에서는 지원 동기와 학업 계획, 문제 해결 능력 등을 잘 준비해야 합니다.
+따라서, 소프트웨어융합과는 서류 평가와 면접 점수가 모두 중요하므로 두 가지 측면에서 충분히 준비하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D282" t="n">
+        <v>0.1682847896440129</v>
+      </c>
+      <c r="E282" t="n">
+        <v>0.03908794788273615</v>
+      </c>
+      <c r="F282" t="n">
+        <v>0.1229773462783171</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부의 2024학년도 수능(일반학생전형) 최초합격자의 수능 4개 영역 등급 평균은 4.12입니다. 따라서, 4.08의 성적은 최초합격자의 평균 등급보다 약간 높은 수준입니다. 
+	최초합격자의 평균 등급과 비교적 근접한 성적이므로, 최초합격 가능성은 있지만 확실하지는 않습니다. 추가적인 요소나 경쟁률에 따라 결과가 달라질 수 있습니다. 
+	정확한 정보는 동의대학교 입학처에 문의하는 것이 좋습니다. 추가적인 문의는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要查看以下几个关键信息：
+1. 同意大学软件工程学部（计算机科学与技术 - 工程、应用软件工程）2024年招生计划中的录取标准。
+2. 您提供的成绩是否满足该专业的最低录取分数线。
+根据您提供的数据，我们可以看到以下内容：
+- 软件工程学部的国语 + 数学 + 选修（两门）（含加分）标准化总分平均值为330.11 / 9.08。
+- 英语等级平均值为3.30 / 0.82。
+- 数学4个领域（含加分）标准化总分平均值为395.67 / 12.66。
+您的成绩是：
+- 国语 + 数学 + 选修（两门）（含加分）标准化总分为330.11 / 9.08。
+- 英语等级为4.08，这超过了平均值3.30。
+- 数学4个领域（含加分）标准化总分没有具体给出，但您需要达到或超过395.67。
+从这些数据来看，您的国语 + 数学 + 选修（两门）成绩正好满足要求。但是，数学4个领域的成绩还需要进一步确认是否达到了录取标准。如果您的数学4个领域成绩也符合或超过了平均值395.67 / 12.66，则有可能被该专业录取。
+建议您查看具体的招生简章或者直接联系学校以获取更准确的信息。</t>
+        </is>
+      </c>
+      <c r="D283" t="n">
+        <v>0.05263157894736842</v>
+      </c>
+      <c r="E283" t="n">
+        <v>0</v>
+      </c>
+      <c r="F283" t="n">
+        <v>0.03157894736842105</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보는 제공된 Context에 포함되어 있지 않습니다. 소프트웨어융합학과는 나군 학생부종합(조기취업형계약학과전형)으로도 모집하며, 이 경우 서류 60%와 면접 40%의 비율로 전형요소를 반영합니다.
+정확한 합격 가능성을 확인하기 위해서는 해당 학과의 최근 합격자 평균 등급이나 입시 결과를 참고해야 합니다. 이러한 정보는 대학의 입학처 홈페이지나 모집요강에서 확인할 수 있습니다. 추가적인 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>2024학년도 동일한 모집단위의 전형요소 반영비율을 확인해보겠습니다.
+```plaintext
+[표 속성]
+``` 전형 유형 / 전형명 / 모집 인원 / 사정 단계 / 전형요소 반영비율(%){학생부교과 / 출결 / 서류 / 면접 / 실기 / 수능} / 수능최저기준 ```
+[표 내용]
+```
+...
+ICT융합공과대학 / 소프트웨어융합학과 / - / 일괄 합산 / { 0 /  0 /  70 /  30 /  0 /  0 / } / 수능최저기준 없음 /
+...
+```
+[표 추가내용]
+```
+소프트웨어융합학과는 전형요소 반영비율이 학생부교과 70%, 면접 30%입니다.
+```
+따라서, 소프트웨어융합학과의 경우 학생부 교과성적을 주로 중시합니다. 
+**5등급**은 고등학교 성적이 상당히 낮은 수준으로, 일반적으로 이 정도 점수만으로는 충분한 학생부교과 성적을 갖추기 어렵습니다.
+**추천사항:**
+1. **학생부 교과성적 향상**: 5등급이 아닌 더 높은 등급의 과목들을 많이 반영받도록 노력하세요.
+2. **면접 준비**: 면접 비중이 30%로 상당히 크므로, 면접 준비도 철저하게 해야 합니다.
+만약 다른 모집단위를 고려해보는 것이 좋을 수도 있습니다. 특정 모집단위에서는 수능 점수나 학생부 교과성적의 비중이 다르게 설정되어 있을 수 있기 때문입니다.</t>
+        </is>
+      </c>
+      <c r="D284" t="n">
+        <v>0.2404092071611253</v>
+      </c>
+      <c r="E284" t="n">
+        <v>0.07197943444730076</v>
+      </c>
+      <c r="F284" t="n">
+        <v>0.1125319693094629</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>정확한 답변을 위해서는 더 많은 정보가 필요하지만, 제공된 데이터를 바탕으로 대략적인 판단을 할 수 있습니다.
+### 신소재공학과, 분자나노공학과 (공과대학) - 2024학년도
+- **최초합격자 평균 수능 4개 영역 등급**: 5.32
+- **최종등록자 평균 수능 4개 영역 등급**: 5.78
+### 귀하의 성적
+- **수능 4개 영역 등급**: 4.28
+귀하의 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높습니다. 따라서, 동의대학교 신소재공학과에 합격할 가능성이 높다고 판단됩니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>4.28이라는 점수만으로는 확실한 답변을 드리기 어렵습니다. 하지만 몇 가지 정보를 바탕으로 추론해볼 수 있습니다.
+1. **모집인원과 지원자 수**: 공과대학 신소재공학과의 모집인원은 56명이고, 지원자는 81명입니다. 이는 경쟁률이 약 1.45:1로 낮지 않지만 여전히 높은 편입니다.
+2. **성적 반영 비율**: 전형요소 반영비율에서 수능 점수가 0%로 나타나므로, 이 과정에서는 성적이 크게 작용하지 않을 것입니다.
+3. **면접 및 서류 평가**: 동의대학교는 학생부종합전형을 통해 면접과 서류평가를 실시합니다. 이 부분에서 좋은 성적을 받기 위해서는 학교생활, 활동 경력 등이 중요할 수 있습니다.
+4. **성적 외 요소**: 성적이 4.28이라면, 학생부와 면접에서 뛰어난 점수를 얻어야 합니다. 특히, 신소재공학과는 기술적인 지식과 창의력을 중요하게 평가하기 때문에 관련 활동이나 프로젝트 경험이 있다면 이점이 될 수 있습니다.
+따라서, 4.28이라는 성적만으로는 확실한 입학을 보장할 수 없습니다. 하지만 성적이 괜찮고 학생부와 면접에서 좋은 평가를 받으면 충분히 가능성이 있을 것입니다. 
+추천되는 조치:
+- **학생부 작성**: 관련 활동과 프로젝트 경력을 잘 기재해주세요.
+- **면접 준비**: 전공에 대한 열정과 이해, 그리고 창의적인 해결책을 준비하세요.
+- **추천서 등 추가 자료**: 가능하다면 선생님이나 지도교사의 추천서를 받는 것도 도움이 될 수 있습니다.
+결국, 성적 외의 요소들이 중요하게 작용할 것입니다.</t>
+        </is>
+      </c>
+      <c r="D285" t="n">
+        <v>0.2760180995475113</v>
+      </c>
+      <c r="E285" t="n">
+        <v>0.08636363636363635</v>
+      </c>
+      <c r="F285" t="n">
+        <v>0.1447963800904978</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>아니요. 수능 일반학생전형은 자기소개서가 필요없습니다.</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 수능(일반학생전형)에서는 자기소개서가 요구되지 않습니다. 
+주요 특징:
+1. **자기소개서 미필수**: 가군, 나군, 다군의 수능(일반학생전형)에서는 자기소개서 제출이 필요하지 않습니다.
+2. **전형 요소**: 주로 수능 성적을 기준으로 합격자를 선발합니다 (가군: 100%, 나군/다군: 100%).
+3. **제출 서류**: 고교 졸업(예정)자 또는 검정고시 출신자의 경우 제출서류는 필요하지 않습니다.
+따라서 수능 점수만 준비하시면 됩니다. 하지만 자기소개서가 요구되는 다른 전형 (예: 학생부종합, 실기/실적 등)에서는 미리 준비해두시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D286" t="n">
+        <v>0.09032258064516129</v>
+      </c>
+      <c r="E286" t="n">
+        <v>0.0261437908496732</v>
+      </c>
+      <c r="F286" t="n">
+        <v>0.09032258064516129</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>동의대학교의 수능 정시 모집에서 합격 가능성을 평가하기 위해서는 각 학과의 평균 등급과 표준 편차를 참고하는 것이 중요합니다. 제공된 데이터에 따르면, 각 학과의 수능 4개 영역 등급 평균과 표준 편차가 나와 있습니다. 
+예를 들어, 인문사회과학대학의 국어국문학과의 경우, 최초 합격자의 수능 4개 영역 등급 평균은 4.65이고, 최종 등록자의 경우 4.92입니다. 
+따라서, 수능 4개 영역 등급이 4.5라면, 일부 학과에서는 합격 가능성이 있을 수 있습니다. 그러나, 각 학과마다 요구하는 등급이 다르므로, 지원하고자 하는 학과의 평균 등급과 비교해보는 것이 중요합니다.
+추가 모집의 경우, 경쟁률이 낮아질 수 있으므로 합격 가능성이 높아질 수 있습니다. 하지만, 추가 모집에 대한 정보는 학교의 공식 홈페이지나 입학처에 문의하는 것이 가장 정확합니다.
+자세한 사항은 동의대학교 입학처에 문의하시기 바랍니다. 추가 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>4.5라는 점수만으로는 확실한 답변을 드리기 어렵습니다. 동의대학교의 수능성적 반영방법과 모집인원, 그리고 해당 학과의 최저합격선 등을 고려해야 합니다.
+1. **수능성적 산출 방법**: 
+   - 정시모집에서는 국어(화법과작문 또는 언어와매체), 수학(확률과통계 또는 미적분 또는 기하), 영어, 탐구영역 중 상위 3개 영역의 표준점수 및 등급점수를 합산합니다.
+   - 예를 들어, 국어 104, 수학 108, 영어 4등급, 과탐(물리Ⅰ) 47, 과탐(화학Ⅰ) 59로 계산하면:
+     - 국어: 104
+     - 수학: 108
+     - 영어: 115 (4등급)
+     - 탐구: (47 + 59) / 2 = 53
+   - 합계 점수: 104 + 108 + 115 + 53 = 380점
+2. **최저합격선**: 
+   - 각 모집단위별로 최저합격선이 다르므로, 해당 학과의 최저합격선을 확인해야 합니다.
+   - 예를 들어, 인문사회과학대학 법학과의 경우 380점 이상이면 충분할 수 있습니다.
+3. **추가모집 가능성**: 
+   - 추가모집 시에도 최저합격선은 유지되므로, 해당 학과의 추가모집 최저합격선을 확인해야 합니다.
+   - 추가모집에서도 합격 가능성을 높이기 위해서는:
+     - 다른 모집단위에서 더 좋은 성적을 받거나
+     - 면접이나 서류평가에서 우수한 평가를 받는 것이 중요합니다.
+4. **전형별 차이**: 
+   - 실기/실적 위주의 전형에서는 수능성적이 상대적으로 낮은 점수라도 실기 성적이 높으면 합격 가능성이 있습니다.
+   - 학생부종합 전형에서는 수능성적이 아닌 학교생활 및 진로계획 등이 중요합니다.
+결론적으로, 4.5라는 점수만으로는 확답을 드릴 수 없습니다. 해당 학과의 최저합격선과 추가모집 시의 상황 등을 확인하고, 필요하다면 면접이나 서류평가에서도 좋은 평가를 받도록 준비하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D287" t="n">
+        <v>0.3367697594501718</v>
+      </c>
+      <c r="E287" t="n">
+        <v>0.1206896551724138</v>
+      </c>
+      <c r="F287" t="n">
+        <v>0.1718213058419244</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>신소재학과의 최종등록자 데이터를 기준으로 보면, 신소재공학과의 영어 등급 평균은 5.06이고, 수능 4개 영역 등급 평균은 5.78입니다. 
+따라서, 신소재공학과의 평균 등급보다 높은 성적을 가지고 있으시면 합격 가능성이 올라갑니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 신소재공학과와 고분자나노공학과는 &lt;나&gt;군 모집단위에 속합니다. 
+&lt;나&gt;군 수능(일반학생전형)의 경우, 해당 모집단위의 전형성적 산출방법은 다음과 같습니다:
+```
+국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수
+```
+따라서 신소재공학과와 고분자나노공학과의 경우, 수능 최저 합격 기준은 다음과 같습니다:
+- **국어**: 국어는 100점 만점으로, 최저합격 기준 점수가 없습니다.
+- **수학**: 수학은 100점 만점으로, 최저합격 기준 점수가 없습니다. 
+- **영어**: 영어 등급 점수가 필요합니다. 2등급 이상이면 합격 가능합니다 (2: 139 / 3: 131 / 4: 123 / 5: 115 / 6: 107 / 7: 99 / 8: 91 / 9: 83 / 10: 75).
+- **탐구**: 탐구 영역은 선택과목이 없으므로, 최저합격 기준 점수가 없습니다.
+따라서 동의대학교 신소재공학부는 수능 영어 등급 2등급 이상이면 합격 가능합니다.</t>
+        </is>
+      </c>
+      <c r="D288" t="n">
+        <v>0.1925925925925926</v>
+      </c>
+      <c r="E288" t="n">
+        <v>0.02238805970149254</v>
+      </c>
+      <c r="F288" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>작년 동의대학교 신소재공학과의 최종 등록자 평균 표준 변환 점수는 378.15점이었습니다. 따라서, 귀하의 표준점수 447점은 작년 신소재공학과의 평균 점수보다 훨씬 높습니다. 이 점수라면 신소재공학과에 합격할 가능성이 매우 높다고 할 수 있습니다. 
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집에서 신소재공학과의 최종 합격 기준 점수가 작년에 비해 약간 높아진 경우도 가능합니다. 하지만 이는 여러 요인에 따라 결정되므로 확실한 답변을 드리기 위해서는 다음과 같은 정보를 확인해야 합니다:
+1. **최근 모집 동향**: 최근 몇 년간 신소재공학과의 합격 기준 점수 추이를 살펴보세요. 이전 연도와 비교하여 어떤 경향이 있는지 파악합니다.
+2. **모집 인원 및 지원자 수**: 2024년 신소재공학과의 모집 인원과 지원자 수가 작년에 비해 어떻게 변했는지 확인해야 합니다. 지원자가 많아졌다면 합격 기준 점수가 상승할 가능성이 있습니다.
+3. **경쟁률**: 2024년 신소재공학과의 경쟁률이 작년에 비해 높아졌다면, 합격 기준 점수도 상승할 수 있습니다.
+4. **입시 환경 변화**: 입시 환경이나 교육 정책 등이 변동되었을 경우에도 합격 기준 점수가 달라질 수 있습니다.
+5. **개별 지원자의 성적 분포**: 작년과 2024년의 지원자들의 성적이 어떻게 분포했는지 확인해 보세요. 이 정보가 합격 기준 점수에 영향을 미칠 수 있습니다.
+이러한 요인들을 종합적으로 고려하여, 작년보다 약간 높아진 447점도 충분히 가능성이 있다고 볼 수 있습니다. 하지만 확실한 답변은 동의대학교 입학관리팀이나 공식 홈페이지를 통해 확인하는 것이 가장 정확할 것입니다.
+추가로, 동의대학교 입학관리팀에 직접 문의하거나, 공식 홈페이지에서 최신 정보를 확인하시면 더욱 정확한 답변을 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D289" t="n">
+        <v>0.2146892655367232</v>
+      </c>
+      <c r="E289" t="n">
+        <v>0.05113636363636364</v>
+      </c>
+      <c r="F289" t="n">
+        <v>0.1468926553672316</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재공학부(일반학생전형)의 최종등록자 데이터를 바탕으로 판단해보겠습니다.
+	신소재공학부의 최종등록자 평균 성적은 다음과 같습니다:
+	- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 271.64, 표준 편차 19.52
+	- 영어 등급: 평균 5.06, 표준 편차 1.22
+	- 수능 4개 영역 등급: 평균 5.78, 표준 편차 0.49
+	- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 378.15, 표준 편차 21.81
+	귀하의 성적이 4.1~4.2등급대라면, 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높은 편입니다. 특히, 영어 등급과 수능 4개 영역 등급에서 차이가 있을 수 있습니다.
+	따라서, 귀하의 성적이 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높으므로, 합격 가능성은 높습니다. 그러나, 최종 합격 여부는 지원자 전체의 성적 분포와 경쟁률에 따라 달라질 수 있습니다.
+	더 자세한 정보나 상담이 필요하다면, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>4.1~4.2 등급으로 동의대학교 신소재공학과에 지원하는 것은 가능하지만, 경쟁률이 매우 높아서 낮은 확률일 수 있습니다.
+다음은 고려해야 할 몇 가지 요인입니다:
+1. **경쟁률**: 신소재공학과는 인기 있는 학과로, 일반적으로 높은 경쟁률을 가지고 있습니다. 4.3 등급에서 4.1~4.2 등급으로 점수를 낮추면 더 많은 지원자가 동일한 점수대를 받게 되어 경쟁률이 더욱 높아질 수 있습니다.
+2. **모집인원**: 정확한 모집인원을 확인해야 합니다. 만약 모집인원이 많다면, 낮은 등급으로도 합격할 가능성이 있지만, 적은 모집인원이라면 경쟁률이 매우 높아질 수 있습니다.
+3. **전형방법**: 동의대학교는 다양한 전형 방법을 사용합니다. 일반적으로 수능 성적과 학생부가 함께 반영되므로, 좋은 학생부 평가도 중요할 것입니다.
+4. **추천서 및 자기소개서 등 추가요인**: 일부 전형에서는 추천서나 자기소개서 등의 서류평가가 포함될 수 있으므로, 이 부분에서도 경쟁력을 높이는 것이 좋습니다.
+5. **예비후보자 선발 가능성**: 만약 최초 합격자가 모집인원을 초과한다면, 예비후보자 순위를 통해 추가로 합격자를 선발할 수 있습니다.
+결론적으로 4.1~4.2 등급으로 신소재공학과에 지원하는 것은 가능하지만, 낮은 확률일 수 있으며, 경쟁력을 높이기 위해 좋은 학생부 평가와 추가 서류 준비를 추천드립니다. 또한 동의대학교 입학 홈페이지나 전화로 상세한 정보를 확인하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D290" t="n">
+        <v>0.2700587084148728</v>
+      </c>
+      <c r="E290" t="n">
+        <v>0.03536345776031434</v>
+      </c>
+      <c r="F290" t="n">
+        <v>0.1174168297455969</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적은 다음과 같습니다:
+- **모집 인원**: 15명
+- **지원 인원**: 24명
+- **경쟁률**: 1.60
+- **충원 합격 (후보순위)**: 5명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 301.87, 표준 편차 12.38
+- **영어 등급**: 평균 4.13, 표준 편차 0.71
+- **수능 4개 영역 등급**: 평균 4.98, 표준 편차 0.25
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 415.80, 표준 편차 10.49
+이 성적을 참고하여 준비하시기 바랍니다. 추가적인 정보가 필요하면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주세요.</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 인공지능학과의 수능(일반학생전형) 최종등록자의 성적을 확인해보겠습니다.
+인공지능학과는 다음과 같은 성적을 보여주고 있습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 415.80
+- 영어 등급 평균: 4.33
+- 수능 4개 영역 등급 평균: 4.98
+이 성적은 최종등록자 중에서 가장 높은 점수를 보여주고 있습니다.
+참고로, 이는 단일 모집단위의 성적이며, 전체 인공지능학과 모집인원에 대한 정보입니다. 실제 수험생들의 성적 분포는 이보다 낮을 가능성이 있으며, 최종합격선은 이보다 낮게 설정될 것입니다.
+수능 점수만으로는 정확한 합격 가능성을 판단하기 어렵습니다. 다른 평가 요소(학생부 등)와 함께 종합적으로 평가되기 때문입니다.
+추천 드리는 것은:
+1. 자신의 성적을 이 수치와 비교해보세요.
+2. 동의대학교 입학 홈페이지를 확인하여 최신 정보를 얻으세요.
+3. 학교 관계자에게 직접 문의하거나, 모의고사 결과를 참고하세요.
+정확한 합격 가능성을 알고 싶다면, 자신의 성적과 학생부 등 다른 평가 요소들을 종합적으로 고려해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D291" t="n">
+        <v>0.3727959697732998</v>
+      </c>
+      <c r="E291" t="n">
+        <v>0.1974683544303797</v>
+      </c>
+      <c r="F291" t="n">
+        <v>0.292191435768262</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 성적을 기준으로 5.27의 성적으로 충원 합격(추합)이 가능한지 확인하기 위해서는 각 학과의 최종 등록자 성적을 비교해보아야 합니다. 아래는 각 학과의 수능 4개 영역 등급 평균과 표준 편차를 기준으로 5.27 성적이 충원 합격 가능한지 확인한 결과입니다:
+1. **인문사회과학대학**
+   - 국어국문학과: 평균 4.92, 표준 편차 0.35
+   - 중어중국학과: 평균 5.68, 표준 편차 0.74
+   - 일본학과: 평균 4.87, 표준 편차 0.13
+   - 영어영문학과: 평균 5.16, 표준 편차 0.66
+   - 문헌정보학과: 평균 4.82, 표준 편차 0.33
+   - 평생교육·청소년상담학과: 평균 5.22, 표준 편차 0.29
+   - 아동학과: 평균 7.08, 표준 편차 0.56
+   - 유아교육과: 평균 4.18, 표준 편차 0.25
+   - 광고홍보학과: 평균 4.47, 표준 편차 0.18
+   - 미디어커뮤니케이션학과: 평균 4.29, 표준 편차 0.23
+   - 법학과: 평균 4.27, 표준 편차 0.27
+   - 경찰행정학과: 평균 4.12, 표준 편차 0.18
+   - 소방방재행정학과: 평균 4.43, 표준 편차 0.40
+   - 행정학과: 평균 4.36, 표준 편차 0.33
+   - 사회복지학과: 평균 4.69, 표준 편차 0.23
+2. **상경대학**
+   - 금융경영학과: 평균 5.41, 표준 편차 0.52
+   - 재무부동산학과: 평균 5.82, 표준 편차 1.25
+   - 무역학과: 평균 5.18, 표준 편차 0.50
+   - 유통물류학과: 평균 5.45, 표준 편차 0.52
+   - 경영학과: 평균 4.69, 표준 편차 0.22
+   - 회계학과: 평균 4.99, 표준 편차 0.41
+   - 경영정보학과: 평균 4.31, 표준 편차 0.23
+   - e비즈니스학과: 평균 4.53, 표준 편차 0.36
+   - 국제관광경영학과: 평균 5.41, 표준 편차 0.56
+   - 호텔·컨벤션경영학과: 평균 6.12, 표준 편차 0.77
+   - 외식경영학과: 평균 4.91, 표준 편차 0.28
+3. **의료보건생활대학**
+   - 간호학과: 평균 3.37, 표준 편차 0.29
+   - 임상병리학과: 평균 4.15, 표준 편차 0.12
+   - 치위생학과: 평균 4.18, 표준 편차 0.20
+   - 방사선학과: 평균 3.82, 표준 편차 0.20
+   - 의료경영학과: 평균 5.92, 표준 편차 1.08
+   - 물리치료학과: 평균 3.62, 표준 편차 0.15
+   - 식품영양학과: 평균 5.92, 표준 편차 1.06
+4. **한의과대학**
+   - 한의예과(수학&lt;미적분/기하&gt;): 평균 1.21, 표준 편차 0.09
+   - 한의예과(수학&lt;확률과통계&gt;): 평균 1.20, 표준 편차 0.05
+5. **공과대학**
+   - 기계공학과, 로봇자동화공학과, 자동차공학과: 평균 6.30, 표준 편차 1.1
+   - 조선해양공학과: 평균 6.16, 표준 편차 1.00
+   - 신소재공학과, 분자나노공학과: 평균 5.78, 표준 편차 0.49
+   - 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과: 평균 4.69, 표준 편차 0.25
+   - 환경공학과, 화학공학과, 응용화학과: 평균 5.73, 표준 편차 0.57
+   - 의생명공학과, 바이오의약공학과, 식품공학과: 평균 5.41, 표준 편차 0.65
+   - 인간공학과, 제품디자인공학과: 평균 5.72, 표준 편차 0.73
+   - 산업경영빅데이터공학과: 평균 5.27, 표준 편차 0.43
+6. **ICT융합공과대학**
+   - 컴퓨터공학과: 평균 4.29, 표준 편차 0.16
+   - 소프트웨어공학부: 평균 4.49, 표준 편차 0.30
+   - 인공지능학과: 평균 5.25, 표준 편차 0.35
+   - 전기공학과, 전자공학과: 평균 5.37, 표준 편차 0.60
+   - 디지털콘텐츠학과: 평균 4.47, 표준 편차 0.24
+   - 게임공학과: 평균 4.78, 표준 편차 0.20
+   - 영화학과: 평균 5.04, 표준 편차 0.76
+7. **예술디자인체육대학**
+   - 패션디자인학과: 평균 4.46, 표준 편차 0.31
+위의 정보를 바탕으로, 5.27의 성적으로 충원 합격이 가능한 학과는 다음과 같습니다:
+- 인문사회과학대학: 중어중국학과, 영어영문학과, 평생교육·청소년상담학과, 아동학과
+- 상경대학: 금융경영학과, 재무부동산학과, 무역학과, 유통물류학과, 호텔·컨벤션경영학과, 외식경영학과
+- 의료보건생활대학: 의료경영학과, 식품영양학과
+- 공과대학: 기계공학과, 로봇자동화공학과, 자동차공학과, 조선해양공학과, 신소재공학과, 분자나노공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과, 산업경영빅데이터공학과
+- ICT융합공과대학: 인공지능학과, 전기공학과, 전자공학과, 영화학과
+위 학과들은 5.27의 성적으로 충원 합격이 가능할 것으로 보입니다. 더 자세한 정보는 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>为了回答您的问题，我需要知道您申请的具体专业和对应的招生计划。不同专业的录取标准可能会有所不同。
+不过，根据您提供的信息（东义大学普通生源型考试成绩为5.27），我们可以做一些基本的分析：
+1. **了解具体专业**：不同专业的录取分数线可能差异较大。例如：
+   - 一些理工科专业通常要求较高的数学和自然科学成绩。
+   - 而文科或人文学科的专业则对英语等科目有更高的要求。
+2. **参考往年数据**：查看过去几年该专业的实际录取情况，了解历年来的平均分和标准差可以帮助判断您的成绩是否具备竞争力。
+3. **招生计划中的具体要求**：不同专业可能会有不同的录取比例和最低分数线。您需要查阅具体的招生简章或咨询学校招生办公室以获取详细信息。
+4. **综合评价因素**：除了考试成绩，学校的录取还可能考虑其他因素如面试表现、个人陈述等。
+如果您能提供更具体的专业名称或其他相关信息，我可以帮助您进行更详细的分析和判断。建议直接联系东义大学的招生办公室或访问其官方网站以获取最准确的信息。</t>
+        </is>
+      </c>
+      <c r="D292" t="n">
+        <v>0.05309734513274336</v>
+      </c>
+      <c r="E292" t="n">
+        <v>0.02758620689655172</v>
+      </c>
+      <c r="F292" t="n">
+        <v>0.0511307767944936</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>소프트웨어공학부의 최종등록자 데이터를 기준으로 보면, 소프트웨어공학부의 영어 등급 평균은 3.77이고, 수능 4개 영역 등급 평균은 4.49입니다. 
+따라서, 현재 정시 등급이 4.2라면 소프트웨어공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>4.2라는 점수는 수능 등급으로 해석하면 대략 3등급 정도입니다. 이 점수를 가지고 동의대학교 소프트웨어공학부에 지원하는 것은 가능하지만, 경쟁률과 모집인원을 고려할 때 매우 어려울 것으로 예상됩니다.
+소프트웨어공학부는 전형요소 반영비율이 다음과 같습니다:
+- 수능 30%
+- 실기/실적 70%
+수능 점수가 낮은 경우, 실기/실적 부분에서 높은 성과를 보여줘야 합니다. 그러나 정시모집에서는 주로 수능 점수가 중요한 역할을 하므로, 4.2의 등급으로는 충분한 실적을 보이는 것이 쉽지 않을 것입니다.
+다만, 다음과 같은 방법들을 통해 지원 가능성은 높일 수 있습니다:
+1. **실기/실적 성과 강조**: 관련 프로젝트나 경력을 잘 준비하고 제출합니다.
+2. **면접 준비**: 면접에서도 자신의 열정과 적합성을 잘 표현할 수 있도록 준비합니다.
+3. **추천서 작성**: 선생님이나 직장에서의 추천서를 잘 받아서 지원합니다.
+결론적으로, 4.2의 등급으로는 소프트웨어공학부에 정시로 지원하는 것은 매우 어려울 것으로 보입니다. 그러나 실적과 면접 준비 등을 잘 하면 지원 가능성은 높일 수 있습니다. 자세한 내용은 동의대학교 입학처 웹사이트를 참고하시거나 전화 문의를 통해 확인하시는 것이 좋습니다.
+https://ipsi.deu.ac.kr/main.do
+이 사이트에서 더 많은 정보와 지원 방법을 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D293" t="n">
+        <v>0.2363112391930836</v>
+      </c>
+      <c r="E293" t="n">
+        <v>0.05217391304347827</v>
+      </c>
+      <c r="F293" t="n">
+        <v>0.138328530259366</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>화학환경공학부의 최종등록자 데이터를 기준으로 보면, 화학환경공학부의 영어 등급 평균은 4.82이고, 수능 4개 영역 등급 평균은 5.73입니다. 
+따라서, 현재 정시 등급이 3.92라면 화학환경공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要查看一些具体的信息：
+1. 化学环境工程系的最低录取分数线是什么？
+2. 该系对各科目的要求和权重是多少？
+根据您提供的信息，我们可以进行以下分析：
+1. 根据“水能位次”表：
+   - 国语 + 数学 + 探究（2个）(含加分)标准转换分数总和的平均值为3.92
+   - 英语等级的平均值为4.0
+2. 化学环境工程系的具体录取要求可能如下：
+   - 一般情况下，国语、数学、英语和探究科目都会被考虑。
+   - 各科目的权重可能会有所不同。
+假设化学环境工程系的要求是：
+- 国语：30%
+- 数学：35%
+- 英语：20%
+- 探究（2个）: 15%
+我们可以计算一下3.92的平均标准转换分数对应的总分：
+(3.92 - 标准差) * (国语权重 + 数学权重 + 探究权重) = 总分
+假设标准差为0.5，那么：
+(3.92 - 0.5) * (30% + 35% + 15%) ≈ 4.42 * 80% ≈ 3.54
+这表明平均标准转换分数3.92对应的总分应该在3.54左右。
+根据英语等级的平均值为4.0，我们可以推断出：
+- 英语等第4.0对应的标准转换分数约为107（具体数值可能略有不同）
+因此，如果化学环境工程系的要求是国语、数学和探究各占30%，英语占20%的话：
+(3.54 * 80%) + (107 * 20%) ≈ 283.2 + 21.4 = 304.6
+这个总分应该可以满足一般学生的录取要求。
+综上所述，如果化学环境工程系的最低录取分数线在300分左右，并且您的成绩符合上述计算结果，则有可能被该系录取。但具体还需要参考学校官方发布的详细录取标准和分数线信息。建议您查看学校官网或直接咨询招生办公室以获取最准确的信息。</t>
+        </is>
+      </c>
+      <c r="D294" t="n">
+        <v>0.05084745762711865</v>
+      </c>
+      <c r="E294" t="n">
+        <v>0</v>
+      </c>
+      <c r="F294" t="n">
+        <v>0.0423728813559322</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>동의대학교 화학환경공학부의 수능 일반학생전형 최초합격자 데이터를 바탕으로 판단해보겠습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 276.61
+- 영어 등급 평균: 4.70
+- 수능 4개 영역 등급 평균: 5.59
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 385.99
+귀하의 성적 4.25는 최초합격자의 평균값보다 높으므로 합격 가능성이 높은 것으로 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 화학환경공학과에 지원하신다면, 다음과 같은 점들을 고려해야 합니다:
+1. **모집단위와 전형 유형**:
+   - 화학환경공학과는 공과대학에 속해 있습니다.
+   - 2024년 동의대학교에서는 공과대학의 모집단위들은 수능 위주로 모집합니다.
+2. **수능 성적 반영방법**:
+   - 수능 위주의 전형인 경우, 수능 성적이 중요하게 반영됩니다.
+   - 수능 성적은 국어(표준점수), 수학(표준점수), 영어(등급 점수), 탐구 과목의 표준점수를 합산하여 평가합니다.
+3. **성적 기준**:
+   - 4.25라는 성적이 동의대학교의 정시 모집요강에 따른 수능 최저기준을 충족하는지 확인해야 합니다.
+   - 현재 정보로는 특정 과목별 점수를 알 수 없으므로, 전체적인 성적 평균과 각 과목의 성적을 고려해야 합니다.
+4. **전형 요소 반영비율**:
+   - 화학환경공학과는 수능 위주로 모집되므로, 수능 성적이 핵심입니다.
+   - 전형요소 반영비율은 수능 100%를 반영하므로, 수능 성적만으로 평가됩니다.
+5. **최저기준 확인**:
+   - 동의대학교 입학 홈페이지나 공식 안내서에서 해당 학과의 정시 모집요강을 확인하여 최저기준 점수를 확인해야 합니다.
+   - 2024년의 경우, 수능 성적 기준이 변경될 수도 있으므로, 최신 정보를 확인하는 것이 중요합니다.
+6. **추천 조치**:
+   - 동의대학교 입학 홈페이지(https://ipsi.deu.ac.kr/main.do)에서 해당 학과의 정시 모집요강을 확인하세요.
+   - 수능 성적 기준이 변경되었는지, 최신 정보를 확인하십시오.
+따라서, 4.25라는 성적이 동의대학교 화학환경공학과의 수능 위주 전형에 충분히 부합하는지는 정확한 수능 성적을 확인해야 합니다. 만약 최저기준을 충족한다면, 원서접수가 가능하며, 합격 가능성은 높아 보입니다.</t>
+        </is>
+      </c>
+      <c r="D295" t="n">
+        <v>0.1978494623655914</v>
+      </c>
+      <c r="E295" t="n">
+        <v>0.03887688984881209</v>
+      </c>
+      <c r="F295" t="n">
+        <v>0.1204301075268817</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>영화학과의 2024학년도 수능(일반학생전형) 최종등록자의 평균 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 286.77 (표준 편차: 17.29)
+- 영어 등급: 3.66 (표준 편차: 1.24)
+- 수능 4개 영역 등급: 5.04 (표준 편차: 0.76)
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 404.43 (표준 편차: 27.09)
+이를 통해, 귀하의 정시 성적이 4.2정도라면 영화학과에 합격할 가능성이 존재한다고 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>4.2의 표준점수는 상당히 높은 점수입니다. 그러나 합격 여부는 여러 요소에 따라 결정되므로 단순히 이 점수만으로 판단하기는 어렵습니다.
+영화학과의 경우, 전형요소 반영비율을 고려해야 합니다. 영화학과는 일반적으로 실기/실적 위주로 평가하는 경향이 있습니다. 예를 들어, 실기/실적 위주의 학생부종합(조기취업형계약학과전형)에서는 서류 70%, 면접 30%의 비율로 평가됩니다.
+다음은 몇 가지 고려해야 할 사항입니다:
+1. **학생부 성적**: 표준점수 4.2는 좋은 점수이지만, 학생부 교과성적이 중요합니다. 특히 영화학과에서는 창의성과 표현력이 중요하므로 국어와 영어 등 언어 관련 과목에서 높은 성적을 보여주면 유리할 수 있습니다.
+2. **면접 및 실기**: 면접에서는 자신의 열정과 목표, 그리고 영화에 대한 이해를 잘 전달해야 합니다. 또한, 예시 작품 분석이나 창작 활동 등이 요구될 수 있으므로 준비가 필요합니다.
+3. **서류 평가**: 서류는 학생부 성적 외에도 자기소개서와 이력서 등을 포함합니다. 창의적인 경험과 활동을 잘 기재해야 합니다.
+4. **경쟁률 및 모집인원**: 영화학과의 경쟁률이 높다면, 4.2라는 점수는 좋은 성적일 수 있지만 여전히 강력한 경쟁자가 있을 것입니다. 따라서 다른 지원자들의 성적을 고려해야 합니다.
+5. **학교별 특성**: 동의대학교의 경우, 영화학과에서는 실기/실적 위주로 평가하는 경향이 있으므로, 이 점수는 유리할 수 있습니다.
+결론적으로, 4.2라는 표준점수는 좋은 성적이지만, 합격 여부는 면접 및 서류 평가 등 다른 요소와 함께 결정됩니다. 따라서 다음과 같은 준비를 하는 것이 좋습니다:
+- **면접 준비**: 자신의 열정과 목표, 창의적인 경험 등을 잘 전달할 수 있도록 준비합니다.
+- **서류 작성**: 자기소개서와 이력서에서 창의적이고 독특한 경험을 잘 기재합니다.
+- **실기 준비**: 필요하다면 예시 작품 분석이나 창작 활동 등 실기를 준비합니다.
+이러한 준비를 통해 최선을 다하면 합격 가능성은 높아질 것입니다.</t>
+        </is>
+      </c>
+      <c r="D296" t="n">
+        <v>0.1734513274336283</v>
+      </c>
+      <c r="E296" t="n">
+        <v>0.04618117229129663</v>
+      </c>
+      <c r="F296" t="n">
+        <v>0.09203539823008849</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 나군 학생부종합(평생학습자전형ㅣ성인학습자(정원내·외)전형ㅣ재직자전형)의 면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타사항 확인 (서류평가 시 작성된 면접질문지를 활용하여 제출서류 진위여부 검증)
+8. 퇴실
+이 절차는 모든 면접생에게 동일하게 적용되며, 개별면접 형태로 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="D297" t="n">
+        <v>0.7035175879396984</v>
+      </c>
+      <c r="E297" t="n">
+        <v>0.6700507614213198</v>
+      </c>
+      <c r="F297" t="n">
+        <v>0.7035175879396984</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대한 정보는 다음과 같습니다:
+ 모집단위 및 실기종목
+- 모집단위: 시각디자인, 산업디자인, 공예디자인
+- 실기종목: 기초디자인, 사고의 전환
+종목별 배점(비율)
+- 배점 : 700점 (70%)
+실기종목별 준비물, 실기주제, 화지크기 및 시험시간
+1. 기초디자인
+- 준비물 : 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기 : 켄트지 3절
+- 시험시간 : 5시간
+2.사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시험시간: 5시간
+이와 같은 정보는 디자인조형학과 실기시험을 준비하는 데 중요한 요소들입니다. 추가적인 정보나 문의사항이 있다면 "https://ipsi.deu.ac.kr/main.do"를 방문하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험은 시각디자인, 산업디자인, 공예디자인 중에서 선택하여 응시하게 됩니다. 각 분야별로 다음과 같은 준비물과 주제, 화지크기, 시간이 정해져 있습니다:
+### 준비물
+- 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+### 실기주제
+- **기초디자인 / 사고의 전환**: 당일 추첨을 통해 주제A와 주제B를 각각 1개씩 선정하여 연결된 주제로 작업합니다.
+### 화지크기
+- **기초디자인 / 사고의 전환**: 켄트지 (3절 또는 2절)
+### 시간
+- **기초디자인 / 사고의 전환**: 5시간
+주요 점검사항:
+1. 제공된 사물과 이미지는 표현하지 않아야 합니다.
+2. 제공된 사물은 모두 1회 이상 표현해야 하며, 색상 변경은 금지입니다.
+이러한 준비와 주제를 바탕으로 학생들은 자신의 창의력을 발휘하여 작품을 완성하게 됩니다.</t>
+        </is>
+      </c>
+      <c r="D298" t="n">
+        <v>0.4981549815498155</v>
+      </c>
+      <c r="E298" t="n">
+        <v>0.274074074074074</v>
+      </c>
+      <c r="F298" t="n">
+        <v>0.2915129151291513</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보는 다음과 같습니다:
+1.실기종목: 기초디자인
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기: 켄트지 3절
+- 시간: 5시간
+2.실기종목: 사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시간: 5시간</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기 종목은 다음과 같습니다:
+1. **시각디자인**
+2. **산업디자인**
+3. **공예디자인**
+**준비물:**
+- 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+**실기주제:**
+- 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨합니다.
+  - 예시: 잠자리와 저울
+  - 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+  - 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+**화지크기:**
+- 켄트지3절 (A4 크기)
+**시간:**
+- 5시간
+이 정보는 디자인조형학과의 실기 종목별 준비물, 실기 주제, 화지 크기 및 시간에 대한 내용입니다.</t>
+        </is>
+      </c>
+      <c r="D299" t="n">
+        <v>0.6027397260273972</v>
+      </c>
+      <c r="E299" t="n">
+        <v>0.444954128440367</v>
+      </c>
+      <c r="F299" t="n">
+        <v>0.4931506849315068</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남)
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회
+- 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 경기지도학과 모집종목별 인정대회에는 다음과 같은 대회들이 있습니다:
+1. 배드민턴(남):
+   - 한국중·고연맹회장기전국학생선수권대회
+   - 대한배드민턴협회장기전국종별배드민턴선수권대회
+   - 전국학교대항배드민턴선수권대회
+   - 전국종별배드민턴선수권대회
+   - 전국연맹종별배드민턴선수권대회
+   - 전국체육대회
+   - 각종국제대회 (국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+   - 광역시·도 협회장기 종별대회
+2. 축구(남):
+   - 춘계한국고등학교축구연맹전
+   - 추계한국고등학교축구연맹전
+   - 대한축구협회장배전국고등학교축구대회
+   - 문화체육관광부장관기전국고등학교축구대회
+   - 문화체육관광부장관배전국고등학교축구대회
+   - 백운기전국고등학교축구대회
+   - 전국고등축구리그(권역별고교축구리그)
+   - 전국고등축구리그왕중왕전
+   - 무학기전국고등학교축구대회
+   - 청룡기전국고등학교축구대회
+   - 백록기전국고등학교축구대회
+   - 금강대기전국고등학교축구대회
+   - 대통령금배전국고등학교축구대회
+   - 금석배전국고등학생축구대회
+   - 부산MBC전국고등학생축구대회
+   - K리그 U18 챔피언십
+   - K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+      <c r="D300" t="n">
+        <v>0.8622754491017964</v>
+      </c>
+      <c r="E300" t="n">
+        <v>0.7414829659318637</v>
+      </c>
+      <c r="F300" t="n">
+        <v>0.8582834331337326</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험 주제는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 추첨하게 됩니다. 예시로는 "잠자리와 저울"이 있습니다.</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 디자인조형학과의 기초디자인 실기시험에서 사용될 수 있는 주제들은 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 이 두 가지 주제 중에서 각각 1개씩을 선택하여 연결된 주제를 만드는 것이 요구됩니다.</t>
+        </is>
+      </c>
+      <c r="D301" t="n">
+        <v>0.8070175438596492</v>
+      </c>
+      <c r="E301" t="n">
+        <v>0.7218934911242604</v>
+      </c>
+      <c r="F301" t="n">
+        <v>0.7953216374269007</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>GPT-4o-mini Average</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D302" t="n">
+        <v>0.4184594566714762</v>
+      </c>
+      <c r="E302" t="n">
+        <v>0.2846320664873266</v>
+      </c>
+      <c r="F302" t="n">
+        <v>0.3648940364679524</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Google Gemma-2-9b-it Average</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D303" t="n">
+        <v>0.3267670018704487</v>
+      </c>
+      <c r="E303" t="n">
+        <v>0.1594024426039403</v>
+      </c>
+      <c r="F303" t="n">
+        <v>0.256966149282352</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct Average</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D304" t="n">
+        <v>0.2980762166623774</v>
+      </c>
+      <c r="E304" t="n">
+        <v>0.1697846234911227</v>
+      </c>
+      <c r="F304" t="n">
+        <v>0.2337629691976375</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
           <t>Total Average</t>
         </is>
       </c>
-      <c r="B204" t="inlineStr">
+      <c r="B305" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="C204" t="inlineStr">
+      <c r="C305" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="D204" t="n">
-        <v>0.3726132292709624</v>
-      </c>
-      <c r="E204" t="n">
-        <v>0.2220172545456335</v>
-      </c>
-      <c r="F204" t="n">
-        <v>0.3109300928751522</v>
+      <c r="D305" t="n">
+        <v>0.347767558401434</v>
+      </c>
+      <c r="E305" t="n">
+        <v>0.2046063775274633</v>
+      </c>
+      <c r="F305" t="n">
+        <v>0.2852077183159806</v>
       </c>
     </row>
   </sheetData>
